--- a/data/achievements.xlsx
+++ b/data/achievements.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/12c59f61e5fb2c22/Desktop/github/team-root-bingo-sheet-generator/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/12c59f61e5fb2c22/Desktop/github/root-bingo/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1113" documentId="8_{AB9AB7AF-F17D-4125-901F-926F7A193F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52D696FA-A17A-4A91-8361-DF604ED673D4}"/>
+  <xr:revisionPtr revIDLastSave="1586" documentId="8_{AB9AB7AF-F17D-4125-901F-926F7A193F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{137CB343-034F-43D9-99A5-B429AF127E1B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3DD2AAD7-0C45-43F7-90C1-2525C62C1F46}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="385">
   <si>
     <t>Name</t>
   </si>
@@ -104,9 +104,6 @@
     <t>General</t>
   </si>
   <si>
-    <t>Gain {x} point(s) on while it is not your own turn</t>
-  </si>
-  <si>
     <t>Add {x} new cards to your Hand</t>
   </si>
   <si>
@@ -125,9 +122,6 @@
     <t>Have ALL your Faction warriors as warriors on the board</t>
   </si>
   <si>
-    <t>End your turn with at least {x} warriors in one clearing</t>
-  </si>
-  <si>
     <t xml:space="preserve">In a single turn </t>
   </si>
   <si>
@@ -164,9 +158,6 @@
     <t>Royal Healthcare</t>
   </si>
   <si>
-    <t>Just Me &amp; My Bodyguards</t>
-  </si>
-  <si>
     <t>Monolithic</t>
   </si>
   <si>
@@ -206,9 +197,6 @@
     <t>Can be from cards, effects, or Hirelings</t>
   </si>
   <si>
-    <t>Have 1 warrior in every clearing</t>
-  </si>
-  <si>
     <t>Have at least {x} more Faction warriors on the board than you did last turn</t>
   </si>
   <si>
@@ -284,306 +272,12 @@
     <t>Landmarks</t>
   </si>
   <si>
-    <t>`Battle` {x} times as the attacker</t>
-  </si>
-  <si>
-    <t>Win the game off of a `Battle` as attacker</t>
-  </si>
-  <si>
-    <t>Win while never being an attacker in `Battle`</t>
-  </si>
-  <si>
-    <t>In a single `Battle`</t>
-  </si>
-  <si>
-    <t>`Battle` at least {x} times as the attacker</t>
-  </si>
-  <si>
-    <t>Have {x} cards in your `Decree`</t>
-  </si>
-  <si>
-    <t>Have at least {x} Bird cards in your `Decree`</t>
-  </si>
-  <si>
-    <t>Win having never added Bird cards to your `Decree`</t>
-  </si>
-  <si>
-    <t>Have at least 1 of every single item type in your `Satchel` and/or player board</t>
-  </si>
-  <si>
-    <t>Be `Allied` with 3 separate Factions</t>
-  </si>
-  <si>
-    <t>Win with a `Dominance`</t>
-  </si>
-  <si>
-    <t>Have at least {x} `Dominance` cards in your Hand</t>
-  </si>
-  <si>
-    <t>Win while in a `Coalition`</t>
-  </si>
-  <si>
-    <t>Must be with `Dominance` card (`Coalition`)</t>
-  </si>
-  <si>
-    <t>Play {x} `Ambush!`es</t>
-  </si>
-  <si>
-    <t>Remove all attacking enemy warriors with an `Ambush!`</t>
-  </si>
-  <si>
-    <t>Gain {x} points from `Craft`ing or removing enemy pieces</t>
-  </si>
-  <si>
-    <t>`Field Hospital` a total of at least {x} warriors</t>
-  </si>
-  <si>
-    <t>Remove at least {x} `Wood` to `Build`</t>
-  </si>
-  <si>
-    <t>Gain at least {x} points from `Craft`ing items</t>
-  </si>
-  <si>
     <t>Pyrrhic Victory</t>
   </si>
   <si>
-    <t>Win having never `Turmoil`ed</t>
-  </si>
-  <si>
-    <t>Win having `Turmoil`ed at least 4 times</t>
-  </si>
-  <si>
-    <t>Win having never built a `Sawmill`</t>
-  </si>
-  <si>
-    <t>Win without the `Keep` token on the board</t>
-  </si>
-  <si>
-    <t>Spend at least {x} cards from your `Supporters` deck</t>
-  </si>
-  <si>
-    <t>Have all 3 `Bases` built/on the board</t>
-  </si>
-  <si>
-    <t>Win with no `Bases` built/on the board</t>
-  </si>
-  <si>
-    <t>Have a `Sympathy` token in all four corners of the map</t>
-  </si>
-  <si>
-    <t>Have at least {x} `Quest`s of the same suit completed</t>
-  </si>
-  <si>
-    <t>Gain at least {x} points from `Aid`ing</t>
-  </si>
-  <si>
-    <t>`Aid` a `Hostile` player at least {x} cards</t>
-  </si>
-  <si>
-    <t>Improve the `Relationship` with a `Hostile` player</t>
-  </si>
-  <si>
-    <t>`Repair` {x} items</t>
-  </si>
-  <si>
-    <t>Win without ever `Flip`ping an `Extortion`</t>
-  </si>
-  <si>
-    <t>Win without ever `Exert`ing</t>
-  </si>
-  <si>
-    <t>Successfully complete at least {x} `Exposure` guess(es)</t>
-  </si>
-  <si>
-    <t>`Sway` a {x} `Minister` with only Bird cards</t>
-  </si>
-  <si>
-    <t>End your turn with at least {x} warriors in the `Burrow`</t>
-  </si>
-  <si>
-    <t>Win the game without ever `Sway`ing any {x} `Minister`s</t>
-  </si>
-  <si>
-    <t>Have at least {x} `Minister`s `Sway`ed</t>
-  </si>
-  <si>
-    <t>`Minister` cards must still be active</t>
-  </si>
-  <si>
-    <t>`Santify` at least {x} buildings</t>
-  </si>
-  <si>
-    <t>Have at least {x} `Acolyte`s</t>
-  </si>
-  <si>
-    <t>Win without ever taking `Conspiracies` under a `Hated Outcast`</t>
-  </si>
-  <si>
     <t>Have NO warriors left in your supply</t>
   </si>
   <si>
-    <t>Have at least {x} `Garden`s of the same suit built/on the board</t>
-  </si>
-  <si>
-    <t>`Crusade` at least {x} warriors into one clearing</t>
-  </si>
-  <si>
-    <t>`Export` at least {x} cards</t>
-  </si>
-  <si>
-    <t>Have at least {x} `Trade Post`s built</t>
-  </si>
-  <si>
-    <t>Gain at least {x} points from `Dividends`</t>
-  </si>
-  <si>
-    <t>Win without ever placing a `Trade Post`</t>
-  </si>
-  <si>
-    <t>Have another player complete a single `Purchase` that costed at least {x} funds</t>
-  </si>
-  <si>
-    <t>Have every item-based `Mood` unavailable for selection</t>
-  </si>
-  <si>
-    <t>Gain at least {x} items from `Looters`</t>
-  </si>
-  <si>
-    <t>Win without ever taking any `Ruins` items</t>
-  </si>
-  <si>
-    <t>Have at least {x} `Mob` tokens placed/on the board</t>
-  </si>
-  <si>
-    <t>`Oppress` at least {x} clearings at the end of the turn</t>
-  </si>
-  <si>
-    <t>Have at least {x} `Stronghold`s built/on the board</t>
-  </si>
-  <si>
-    <t>`Recruit` at least {x} warriors</t>
-  </si>
-  <si>
-    <t>Win without currently have any `Waystation`s on the board</t>
-  </si>
-  <si>
-    <t>Win having never added Bird cards to your `Retinue`</t>
-  </si>
-  <si>
-    <t>Win having only ever added Bird cards to your `Retinue`</t>
-  </si>
-  <si>
-    <t>Add at least {x} cards to the `Retinue`</t>
-  </si>
-  <si>
-    <t>Win without ever losing your `Warlord`</t>
-  </si>
-  <si>
-    <t>Win without ever moving your`Warlord` from its starting clearing</t>
-  </si>
-  <si>
-    <t>Win the game without ever `Purchasing` any `Services`</t>
-  </si>
-  <si>
-    <t>Have 2 `Waystation`s on opposite corners of the map</t>
-  </si>
-  <si>
-    <t>`Recover` at least {x} unique types of `Relic`s</t>
-  </si>
-  <si>
-    <t>Win having only `Recover`ed 1 type of `Relic`</t>
-  </si>
-  <si>
-    <t>Win without ever losing any warriors to `Living off the Land`</t>
-  </si>
-  <si>
-    <t>Starting `Faithful Retainer`s do not count</t>
-  </si>
-  <si>
-    <t>Win with all 3 of your `Faithful Retainer`s still in the `Retinue`</t>
-  </si>
-  <si>
-    <t>Win having only ever choosen the `Jubiliant` and `Lavish` moods</t>
-  </si>
-  <si>
-    <t>The starting `Stubborn` mood does not count</t>
-  </si>
-  <si>
-    <t>Can be as `Acolyte`s, warriors, in `Coffin Makers`, on other playerboards, etc.</t>
-  </si>
-  <si>
-    <t>`Lost City` does not count</t>
-  </si>
-  <si>
-    <t>Has to be from forced placement (e.g., `Sawmill`s, `Stronghold`s)</t>
-  </si>
-  <si>
-    <t>For Elite mode, must be played on {Autumn map and `Lost City`} or {Mountain map}</t>
-  </si>
-  <si>
-    <t>Gain at least {x} points from `Flip`ping `Plot`s</t>
-  </si>
-  <si>
-    <t>Have at least {x} `Plot`s of the same type face-up on the board</t>
-  </si>
-  <si>
-    <t>`Flip` and score the `Bomb` while you have a face-up `Snare`,`Raid`, and `Extortion`</t>
-  </si>
-  <si>
-    <t>Includes `Royal Viziers`</t>
-  </si>
-  <si>
-    <t>Points gained from removing pieces from `Bomb`s count</t>
-  </si>
-  <si>
-    <t>Can be from Draws, `Aid`s, `Purchase`s, or any exchanges from `Swap Meet` or `Black Market`</t>
-  </si>
-  <si>
-    <t>VB and Rats cannot get this achievement, as they do not have a `Crafted Items` box</t>
-  </si>
-  <si>
-    <t>On the player board (`Acolyte`s, funds, `Officer`s, etc.) do not count</t>
-  </si>
-  <si>
-    <t>Excluding `Royal Viziers`</t>
-  </si>
-  <si>
-    <t>Initial placement does not count; `Overwork` is allowed</t>
-  </si>
-  <si>
-    <t>Must play `Scoundrel`, `Ronin`, or `Arbiter`</t>
-  </si>
-  <si>
-    <t>Can be from `Allied` move or card</t>
-  </si>
-  <si>
-    <t>Can be from `Hammer` or `Evening's Rest`</t>
-  </si>
-  <si>
-    <t>Have all 7 `Roost`s built/on the board</t>
-  </si>
-  <si>
-    <t>`Build` at least {x} `Roost`s</t>
-  </si>
-  <si>
-    <t>Have at least {x} items in your `Crafted Items` box</t>
-  </si>
-  <si>
-    <t>Have at least 4 `Boot`s and/or 3 `Bag`s in your `Crafted Items` Box</t>
-  </si>
-  <si>
-    <t>Have 5 `Boot`s or 5 `Sword`s in your `Crafted Items` Box</t>
-  </si>
-  <si>
-    <t>Have at least {x} `Ruins` items in your `Hoard`</t>
-  </si>
-  <si>
-    <t>`Noble`</t>
-  </si>
-  <si>
-    <t>`Lord`</t>
-  </si>
-  <si>
     <t>Purity of Zeal</t>
   </si>
   <si>
@@ -599,21 +293,12 @@
     <t>Iron Medals</t>
   </si>
   <si>
-    <t>The Faithful Endure</t>
-  </si>
-  <si>
     <t>Retinue Expansion</t>
   </si>
   <si>
-    <t>No Sacrifice Needed</t>
-  </si>
-  <si>
     <t>Curator's Preference</t>
   </si>
   <si>
-    <t>Reclamation!</t>
-  </si>
-  <si>
     <t>Pilgrimage</t>
   </si>
   <si>
@@ -740,9 +425,6 @@
     <t>Charsmatic</t>
   </si>
   <si>
-    <t>Win without ever going higher than {x} on both the`Command` and `Prowess` tracks</t>
-  </si>
-  <si>
     <t>Investor</t>
   </si>
   <si>
@@ -770,21 +452,12 @@
     <t>Ceasefire</t>
   </si>
   <si>
-    <t>Start your turn with at least {x} `Relic`s in any clearings</t>
-  </si>
-  <si>
     <t>Nomadic</t>
   </si>
   <si>
     <t>Bingo</t>
   </si>
   <si>
-    <t>You are not last place or tied for last place in terms of score</t>
-  </si>
-  <si>
-    <t>Win the game</t>
-  </si>
-  <si>
     <t>Bingo!</t>
   </si>
   <si>
@@ -830,22 +503,697 @@
     <t>Icon</t>
   </si>
   <si>
-    <t>Win the game while ruling the `Tower` clearing</t>
-  </si>
-  <si>
-    <t>Win the game while having a crafting piece in the `Lost City` clearing</t>
-  </si>
-  <si>
-    <t>Win the game while ruling the `Black Market` clearing</t>
-  </si>
-  <si>
-    <t>Win the game with a building on the `Elder Treetop` landmark</t>
-  </si>
-  <si>
-    <t>Win the game having used the `Ferry` landmark this turn</t>
-  </si>
-  <si>
-    <t>Win the game while having no items left to `Craft` on the `Legendary Forge` card</t>
+    <t>Recruit at least {x} warriors</t>
+  </si>
+  <si>
+    <t>Add at least {x} cards to the Retinue</t>
+  </si>
+  <si>
+    <t>Recover at least {x} unique types of Relics</t>
+  </si>
+  <si>
+    <t>Have 2 Waystations on opposite corners of the map</t>
+  </si>
+  <si>
+    <t>Win having never added Bird cards to your Retinue</t>
+  </si>
+  <si>
+    <t>Have {x} cards in your Decree</t>
+  </si>
+  <si>
+    <t>Includes Royal Viziers</t>
+  </si>
+  <si>
+    <t>Gain at least {x} points from Crafting items</t>
+  </si>
+  <si>
+    <t>Have all 7 Roosts built/on the board</t>
+  </si>
+  <si>
+    <t>Have at least {x} Bird cards in your Decree</t>
+  </si>
+  <si>
+    <t>Build at least {x} Roosts</t>
+  </si>
+  <si>
+    <t>Battle at least {x} times as the attacker</t>
+  </si>
+  <si>
+    <t>Win having never added Bird cards to your Decree</t>
+  </si>
+  <si>
+    <t>Win having Turmoiled at least 4 times</t>
+  </si>
+  <si>
+    <t>Battle {x} times as the attacker</t>
+  </si>
+  <si>
+    <t>Field Hospital a total of at least {x} warriors</t>
+  </si>
+  <si>
+    <t>Remove at least {x} Wood to Build</t>
+  </si>
+  <si>
+    <t>Win having never built a Sawmill</t>
+  </si>
+  <si>
+    <t>Initial placement does not count; Overwork is allowed</t>
+  </si>
+  <si>
+    <t>Win without the Keep token on the board</t>
+  </si>
+  <si>
+    <t>Gain at least {x} points from Flipping Plots</t>
+  </si>
+  <si>
+    <t>Points gained from removing pieces from Bombs count</t>
+  </si>
+  <si>
+    <t>Have at least {x} Plots of the same type face-up on the board</t>
+  </si>
+  <si>
+    <t>For Elite mode, must be played on {Autumn map and Lost City} or {Mountain map}</t>
+  </si>
+  <si>
+    <t>Has to be from forced placement (e.g., Sawmills, Strongholds)</t>
+  </si>
+  <si>
+    <t>Win without ever Flipping an Extortion</t>
+  </si>
+  <si>
+    <t>Gain {x} points from Crafting or removing enemy pieces</t>
+  </si>
+  <si>
+    <t>Can be from Draws, Aids, Purchases, or any exchanges from Swap Meet or Black Market</t>
+  </si>
+  <si>
+    <t>In a single Battle</t>
+  </si>
+  <si>
+    <t>Have at least {x} Dominance cards in your Hand</t>
+  </si>
+  <si>
+    <t>Have at least {x} items in your Crafted Items box</t>
+  </si>
+  <si>
+    <t>VB and Rats cannot get this achievement, as they do not have a Crafted Items box</t>
+  </si>
+  <si>
+    <t>On the player board (Acolytes, funds, Officers, etc.) do not count</t>
+  </si>
+  <si>
+    <t>Successfully complete at least {x} Exposure guess(es)</t>
+  </si>
+  <si>
+    <t>Win with a Dominance</t>
+  </si>
+  <si>
+    <t>Win while never being an attacker in Battle</t>
+  </si>
+  <si>
+    <t>Win while in a Coalition</t>
+  </si>
+  <si>
+    <t>Santify at least {x} buildings</t>
+  </si>
+  <si>
+    <t>Have at least {x} Acolytes</t>
+  </si>
+  <si>
+    <t>Win without ever taking Conspiracies under a Hated Outcast</t>
+  </si>
+  <si>
+    <t>Can be as Acolytes, warriors, in Coffin Makers, on other playerboards, etc.</t>
+  </si>
+  <si>
+    <t>Have at least {x} Gardens of the same suit built/on the board</t>
+  </si>
+  <si>
+    <t>Crusade at least {x} warriors into one clearing</t>
+  </si>
+  <si>
+    <t>Lord</t>
+  </si>
+  <si>
+    <t>Noble</t>
+  </si>
+  <si>
+    <t>End your turn with at least {x} warriors in the Burrow</t>
+  </si>
+  <si>
+    <t>Have at least {x} Ministers Swayed</t>
+  </si>
+  <si>
+    <t>Minister cards must still be active</t>
+  </si>
+  <si>
+    <t>Lost City does not count</t>
+  </si>
+  <si>
+    <t>Have at least {x} Trade Posts built</t>
+  </si>
+  <si>
+    <t>Gain at least {x} points from Dividends</t>
+  </si>
+  <si>
+    <t>Have another player complete a single Purchase that costed at least {x} funds</t>
+  </si>
+  <si>
+    <t>Win without ever placing a Trade Post</t>
+  </si>
+  <si>
+    <t>Have every item-based Mood unavailable for selection</t>
+  </si>
+  <si>
+    <t>Gain at least {x} items from Looters</t>
+  </si>
+  <si>
+    <t>Have at least {x} Ruins items in your Hoard</t>
+  </si>
+  <si>
+    <t>Have at least {x} Mob tokens placed/on the board</t>
+  </si>
+  <si>
+    <t>Oppress at least {x} clearings at the end of the turn</t>
+  </si>
+  <si>
+    <t>Have at least {x} Strongholds built/on the board</t>
+  </si>
+  <si>
+    <t>Win having only ever choosen the Jubiliant and Lavish moods</t>
+  </si>
+  <si>
+    <t>The starting Stubborn mood does not count</t>
+  </si>
+  <si>
+    <t>Win without ever moving yourWarlord from its starting clearing</t>
+  </si>
+  <si>
+    <t>Win without ever losing your Warlord</t>
+  </si>
+  <si>
+    <t>Have at least 1 of every single item type in your Satchel and/or player board</t>
+  </si>
+  <si>
+    <t>Have at least {x} Quests of the same suit completed</t>
+  </si>
+  <si>
+    <t>Gain at least {x} points from Aiding</t>
+  </si>
+  <si>
+    <t>Repair {x} items</t>
+  </si>
+  <si>
+    <t>Can be from Hammer or Evening's Rest</t>
+  </si>
+  <si>
+    <t>Aid a Hostile player at least {x} cards</t>
+  </si>
+  <si>
+    <t>Have 5 Boots or 5 Swords in your Crafted Items Box</t>
+  </si>
+  <si>
+    <t>Must play Scoundrel, Ronin, or Arbiter</t>
+  </si>
+  <si>
+    <t>Win without ever taking any Ruins items</t>
+  </si>
+  <si>
+    <t>Have at least 4 Boots and/or 3 Bags in your Crafted Items Box</t>
+  </si>
+  <si>
+    <t>Can be from Allied move or card</t>
+  </si>
+  <si>
+    <t>Improve the Relationship with a Hostile player</t>
+  </si>
+  <si>
+    <t>Must be with Dominance card (Coalition)</t>
+  </si>
+  <si>
+    <t>Spend at least {x} cards from your Supporters deck</t>
+  </si>
+  <si>
+    <t>Have a Sympathy token in all four corners of the map</t>
+  </si>
+  <si>
+    <t>Win with no Bases built/on the board</t>
+  </si>
+  <si>
+    <t>Have all 3 Bases built/on the board</t>
+  </si>
+  <si>
+    <t>Win while there are no Relics in any Forests (all Relics must be either Delved or Recovered)</t>
+  </si>
+  <si>
+    <t>Gain at least {x} points from Recover and column bonuses</t>
+  </si>
+  <si>
+    <t>Diverse Collector</t>
+  </si>
+  <si>
+    <t>Win having Recovered no more than 1 type of Relic</t>
+  </si>
+  <si>
+    <t>No Badger Left Behind</t>
+  </si>
+  <si>
+    <t>Endurance of the Faithful</t>
+  </si>
+  <si>
+    <t>Remove at least 3 enemy pieces from a clearing with a Relic as attacker</t>
+  </si>
+  <si>
+    <t>War Priests</t>
+  </si>
+  <si>
+    <t>Supply Chain Command</t>
+  </si>
+  <si>
+    <t>Do not remove any cards from your Retinue while you have at least 8 cards in the Retinue</t>
+  </si>
+  <si>
+    <t>Royal Claim</t>
+  </si>
+  <si>
+    <t>At the end of turn</t>
+  </si>
+  <si>
+    <t>Rule {x} clearings</t>
+  </si>
+  <si>
+    <t>At end of a turn</t>
+  </si>
+  <si>
+    <t>At start of a turn</t>
+  </si>
+  <si>
+    <t>Have at least {x} un-Recovered Relics in any clearings</t>
+  </si>
+  <si>
+    <t>Have at least {x} warriors in one clearing</t>
+  </si>
+  <si>
+    <t>Have at least {x} Sawmills, Workshops, and Recruiters built/on the board</t>
+  </si>
+  <si>
+    <t>Metropolis</t>
+  </si>
+  <si>
+    <t>Just Me &amp; My 300 Bodyguards</t>
+  </si>
+  <si>
+    <t>Win</t>
+  </si>
+  <si>
+    <t>Finish</t>
+  </si>
+  <si>
+    <t>Finish having only ever added Bird cards to your Retinue</t>
+  </si>
+  <si>
+    <t>Finish with all 3 of your Faithful Retainers still in the Retinue</t>
+  </si>
+  <si>
+    <t>Finish without ever losing any warriors to Living off the Land</t>
+  </si>
+  <si>
+    <t>Finish having never Turmoiled</t>
+  </si>
+  <si>
+    <t>Bureaucratic Leadership</t>
+  </si>
+  <si>
+    <t>{x} while having never added more than 1 card per turn to your Decree</t>
+  </si>
+  <si>
+    <t>Emergency Policies</t>
+  </si>
+  <si>
+    <t>Have 0 cards in your Hand</t>
+  </si>
+  <si>
+    <t>{x} without ever Exerting</t>
+  </si>
+  <si>
+    <t>Sheer Terror</t>
+  </si>
+  <si>
+    <t>Remove {x} enemy pieces with a single Flipped Bomb</t>
+  </si>
+  <si>
+    <t>{x} while having at least 1 warrior in every clearing</t>
+  </si>
+  <si>
+    <t>A Murder of…</t>
+  </si>
+  <si>
+    <t>Play {x} Ambushes</t>
+  </si>
+  <si>
+    <t>Remove all attacking enemy warriors with an Ambush</t>
+  </si>
+  <si>
+    <t>Full Counter</t>
+  </si>
+  <si>
+    <t>Friends? In This Woodland?</t>
+  </si>
+  <si>
+    <t>Indomitable</t>
+  </si>
+  <si>
+    <t>Pacifist</t>
+  </si>
+  <si>
+    <t>Armored</t>
+  </si>
+  <si>
+    <t>The Armies of Isen…?</t>
+  </si>
+  <si>
+    <t>Well-Connected</t>
+  </si>
+  <si>
+    <t>Armory for One</t>
+  </si>
+  <si>
+    <t>5 Ways to Win</t>
+  </si>
+  <si>
+    <t>Carnage</t>
+  </si>
+  <si>
+    <t>Quickdraw</t>
+  </si>
+  <si>
+    <t>Point Salad</t>
+  </si>
+  <si>
+    <t>Something's Fishy…</t>
+  </si>
+  <si>
+    <t>Have gained at least {x} point(s) after the end of your last turn</t>
+  </si>
+  <si>
+    <t>Cross-Faction Collusion?!</t>
+  </si>
+  <si>
+    <t>Double-Edged</t>
+  </si>
+  <si>
+    <t>My Tower</t>
+  </si>
+  <si>
+    <t>My Market</t>
+  </si>
+  <si>
+    <t>My Treetop</t>
+  </si>
+  <si>
+    <t>My Forge</t>
+  </si>
+  <si>
+    <t>My City</t>
+  </si>
+  <si>
+    <t>My Ferry</t>
+  </si>
+  <si>
+    <t>Win without ever Purchasing any Services</t>
+  </si>
+  <si>
+    <t>Win while ruling the Tower clearing</t>
+  </si>
+  <si>
+    <t>Win while having a crafting piece in the Lost City clearing</t>
+  </si>
+  <si>
+    <t>Win having used the Ferry landmark this turn</t>
+  </si>
+  <si>
+    <t>Win with a building on the Elder Treetop landmark</t>
+  </si>
+  <si>
+    <t>Win while having no items left to Craft on the Legendary Forge card</t>
+  </si>
+  <si>
+    <t>Win without ever Swaying any {x} Ministers</t>
+  </si>
+  <si>
+    <t>Win off of a Battle as attacker</t>
+  </si>
+  <si>
+    <t>Win having swapped a card at the Black Market this turn</t>
+  </si>
+  <si>
+    <t>Stubborn</t>
+  </si>
+  <si>
+    <t>Win having never used Dominance Swap</t>
+  </si>
+  <si>
+    <t>Adapt and Overcome</t>
+  </si>
+  <si>
+    <t>Use the Dominance Swap effect at least 2 times</t>
+  </si>
+  <si>
+    <t>Mega Church</t>
+  </si>
+  <si>
+    <t>Targeted Proselytizing</t>
+  </si>
+  <si>
+    <t>Win having only ever Recruited in one suit</t>
+  </si>
+  <si>
+    <t>Pride Parade</t>
+  </si>
+  <si>
+    <t>Have at least 2 cards of every suit in the Move column of the Decree</t>
+  </si>
+  <si>
+    <t>Excludes Royal Viziers</t>
+  </si>
+  <si>
+    <t>Excludes Faithful Retainers</t>
+  </si>
+  <si>
+    <t>Convert at least 1 warrior from every other enemy Faction</t>
+  </si>
+  <si>
+    <t>Multi-cultural Cults</t>
+  </si>
+  <si>
+    <t>Underwing Media</t>
+  </si>
+  <si>
+    <t>Change the distribution of the Lost Souls deck such that it changes the suit of the current Outcast</t>
+  </si>
+  <si>
+    <t>Use False Orders</t>
+  </si>
+  <si>
+    <t>Win a game</t>
+  </si>
+  <si>
+    <t>At the Crossroads</t>
+  </si>
+  <si>
+    <t>Preserving the Count</t>
+  </si>
+  <si>
+    <t>Sway a Lord with only Bird cards</t>
+  </si>
+  <si>
+    <t>Total Parliament</t>
+  </si>
+  <si>
+    <t>Use the effect of at least 2 Squires, Nobles, and Lords</t>
+  </si>
+  <si>
+    <t>Escape Plans</t>
+  </si>
+  <si>
+    <t>Finish with a Tunnel in all clearings with a Citadel and/or Market</t>
+  </si>
+  <si>
+    <t>{x} having never triggered Price of Failure</t>
+  </si>
+  <si>
+    <t>Riskless Expeditions</t>
+  </si>
+  <si>
+    <t>Devotion Unwavering</t>
+  </si>
+  <si>
+    <t>Win having never triggered Fear of the Faithful</t>
+  </si>
+  <si>
+    <t>Burned Contacts</t>
+  </si>
+  <si>
+    <t>Anti-Artisanship</t>
+  </si>
+  <si>
+    <t>Win having never Crafted any items</t>
+  </si>
+  <si>
+    <t>Open Policies</t>
+  </si>
+  <si>
+    <t>Finish having never added a suited card to the Recruit, Battle, or Build columns of the Decree</t>
+  </si>
+  <si>
+    <t>Decamp 3 Waystations that were previously on the board</t>
+  </si>
+  <si>
+    <t>Forced Partisans</t>
+  </si>
+  <si>
+    <t>Draw at least {x} cards</t>
+  </si>
+  <si>
+    <t>Have at least 1 of every Plot face-up on the board (Bomb will be temporarily face-up when Flipped)</t>
+  </si>
+  <si>
+    <t>Government Functions</t>
+  </si>
+  <si>
+    <t>Underground Party</t>
+  </si>
+  <si>
+    <t>Sandcastles</t>
+  </si>
+  <si>
+    <t>Whacker Moles</t>
+  </si>
+  <si>
+    <t>Filled Senate</t>
+  </si>
+  <si>
+    <t>Equal Representation</t>
+  </si>
+  <si>
+    <t>Down the River</t>
+  </si>
+  <si>
+    <t>Square the Corners</t>
+  </si>
+  <si>
+    <t>Surround Sound</t>
+  </si>
+  <si>
+    <t>Finish without ever placing more than 1 Trade Post a turn</t>
+  </si>
+  <si>
+    <t>Steady Expansion</t>
+  </si>
+  <si>
+    <t>Fishing Expedition</t>
+  </si>
+  <si>
+    <t>Pillager</t>
+  </si>
+  <si>
+    <t>Forced Disassembly</t>
+  </si>
+  <si>
+    <t>Tomb Raider</t>
+  </si>
+  <si>
+    <t>All Are Equal, But Some Are More Equal</t>
+  </si>
+  <si>
+    <t>Win without ever going higher than {x} on both the Command and Prowess tracks</t>
+  </si>
+  <si>
+    <t>Immortal</t>
+  </si>
+  <si>
+    <t>The Great Wall</t>
+  </si>
+  <si>
+    <t>Win having Exported at least 2 cards in that last turn</t>
+  </si>
+  <si>
+    <t>Remove at least {x} warriors on an opponents turn through Mercenaries</t>
+  </si>
+  <si>
+    <t>Assisted Frontline</t>
+  </si>
+  <si>
+    <t>Diverse Offerings</t>
+  </si>
+  <si>
+    <t>{x} having sold every Service at least once</t>
+  </si>
+  <si>
+    <t>Aquaphobic</t>
+  </si>
+  <si>
+    <t>{x} having never used Swimmers</t>
+  </si>
+  <si>
+    <t>Moshpit</t>
+  </si>
+  <si>
+    <t>Win with all 4 Ruins items in your Satchel and/or player board</t>
+  </si>
+  <si>
+    <t>Spelunker</t>
+  </si>
+  <si>
+    <t>Talentless</t>
+  </si>
+  <si>
+    <t>On a Character with a Character ability that requires a Torch, {x} without ever using that ability</t>
+  </si>
+  <si>
+    <t>Cannot be done with Adventurer, Arbiter, or Ronin</t>
+  </si>
+  <si>
+    <t>You have at least the second highest (or tied for having the second highest) score in a game</t>
+  </si>
+  <si>
+    <t>Self-Limiting Power</t>
+  </si>
+  <si>
+    <t>Tyranny</t>
+  </si>
+  <si>
+    <t>Finish a game having taken points off of Oppression every single turn</t>
+  </si>
+  <si>
+    <t>Be Allied with at least {x} of the enemy Factions</t>
+  </si>
+  <si>
+    <t>Have at least 5 Officers</t>
+  </si>
+  <si>
+    <t>Win with at most 2 Officers</t>
+  </si>
+  <si>
+    <t>Gain at least {x} points from placing Sympathy and/or Organizing</t>
+  </si>
+  <si>
+    <t>First Blood</t>
+  </si>
+  <si>
+    <t>Pacemaker</t>
+  </si>
+  <si>
+    <t>Refreshing</t>
+  </si>
+  <si>
+    <t>Be the first person of the game to remove an enemy piece in Batttle</t>
+  </si>
+  <si>
+    <t>Be the first person of the game to reach 12 points</t>
+  </si>
+  <si>
+    <t>Be the first person of the game to trigger the Deck reshuffle</t>
   </si>
 </sst>
 </file>
@@ -913,10 +1261,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1236,21 +1580,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FDCFD0A-EB57-49F4-AAA1-9BCA9E273D10}">
-  <dimension ref="A1:K126"/>
+  <dimension ref="A1:K161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H129" sqref="H129"/>
+      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F152" sqref="F152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" customWidth="1"/>
     <col min="7" max="7" width="22.42578125" customWidth="1"/>
-    <col min="8" max="8" width="70.7109375" customWidth="1"/>
+    <col min="8" max="8" width="88.85546875" customWidth="1"/>
     <col min="9" max="9" width="9.140625" customWidth="1"/>
     <col min="11" max="11" width="77.42578125" customWidth="1"/>
   </cols>
@@ -1269,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>262</v>
+        <v>153</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>11</v>
@@ -1287,7 +1631,7 @@
         <v>1</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1301,10 +1645,10 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>196</v>
+        <v>91</v>
       </c>
       <c r="E2" t="s">
-        <v>250</v>
+        <v>141</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
@@ -1313,7 +1657,7 @@
         <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>81</v>
+        <v>168</v>
       </c>
       <c r="I2">
         <v>3</v>
@@ -1333,19 +1677,19 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>193</v>
+        <v>88</v>
       </c>
       <c r="E3" t="s">
-        <v>251</v>
+        <v>142</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>247</v>
       </c>
       <c r="H3" t="s">
-        <v>86</v>
+        <v>159</v>
       </c>
       <c r="I3">
         <v>10</v>
@@ -1354,7 +1698,7 @@
         <v>15</v>
       </c>
       <c r="K3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1368,16 +1712,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>226</v>
+        <v>121</v>
       </c>
       <c r="E4" t="s">
-        <v>252</v>
+        <v>143</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H4" t="s">
         <v>13</v>
@@ -1394,19 +1738,19 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>216</v>
+        <v>111</v>
       </c>
       <c r="E5" t="s">
-        <v>252</v>
+        <v>143</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H5" t="s">
-        <v>82</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1420,19 +1764,19 @@
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>219</v>
+        <v>114</v>
       </c>
       <c r="E6" t="s">
-        <v>253</v>
+        <v>144</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H6" t="s">
-        <v>89</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1449,16 +1793,22 @@
         <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>253</v>
+        <v>144</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H7" t="s">
-        <v>90</v>
+        <v>375</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1472,10 +1822,10 @@
         <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>197</v>
+        <v>92</v>
       </c>
       <c r="E8" t="s">
-        <v>254</v>
+        <v>145</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
@@ -1484,7 +1834,7 @@
         <v>15</v>
       </c>
       <c r="H8" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="I8">
         <v>6</v>
@@ -1493,7 +1843,7 @@
         <v>10</v>
       </c>
       <c r="K8" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1506,23 +1856,26 @@
       <c r="C9" t="s">
         <v>19</v>
       </c>
+      <c r="D9" t="s">
+        <v>339</v>
+      </c>
       <c r="E9" t="s">
-        <v>255</v>
+        <v>146</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H9" t="s">
-        <v>120</v>
+        <v>299</v>
       </c>
       <c r="I9" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="J9" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1533,19 +1886,22 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>69</v>
+      </c>
+      <c r="D10" t="s">
+        <v>273</v>
       </c>
       <c r="E10" t="s">
-        <v>256</v>
+        <v>147</v>
       </c>
       <c r="F10" t="s">
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H10" t="s">
-        <v>91</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1556,19 +1912,22 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>69</v>
+      </c>
+      <c r="D11" t="s">
+        <v>272</v>
       </c>
       <c r="E11" t="s">
-        <v>256</v>
+        <v>147</v>
       </c>
       <c r="F11" t="s">
         <v>6</v>
       </c>
       <c r="G11" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H11" t="s">
-        <v>93</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1579,19 +1938,22 @@
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>69</v>
+      </c>
+      <c r="D12" t="s">
+        <v>274</v>
       </c>
       <c r="E12" t="s">
-        <v>256</v>
+        <v>147</v>
       </c>
       <c r="F12" t="s">
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H12" t="s">
-        <v>83</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1602,19 +1964,22 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>73</v>
+        <v>69</v>
+      </c>
+      <c r="D13" t="s">
+        <v>285</v>
       </c>
       <c r="E13" t="s">
-        <v>256</v>
+        <v>147</v>
       </c>
       <c r="F13" t="s">
         <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>15</v>
+        <v>248</v>
       </c>
       <c r="H13" t="s">
-        <v>21</v>
+        <v>284</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -1631,10 +1996,13 @@
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>73</v>
+        <v>69</v>
+      </c>
+      <c r="D14" t="s">
+        <v>283</v>
       </c>
       <c r="E14" t="s">
-        <v>256</v>
+        <v>147</v>
       </c>
       <c r="F14" t="s">
         <v>12</v>
@@ -1643,7 +2011,7 @@
         <v>15</v>
       </c>
       <c r="H14" t="s">
-        <v>95</v>
+        <v>269</v>
       </c>
       <c r="I14">
         <v>2</v>
@@ -1660,10 +2028,13 @@
         <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>73</v>
+        <v>69</v>
+      </c>
+      <c r="D15" t="s">
+        <v>282</v>
       </c>
       <c r="E15" t="s">
-        <v>256</v>
+        <v>147</v>
       </c>
       <c r="F15" t="s">
         <v>12</v>
@@ -1672,7 +2043,7 @@
         <v>15</v>
       </c>
       <c r="H15" t="s">
-        <v>97</v>
+        <v>180</v>
       </c>
       <c r="I15">
         <v>4</v>
@@ -1689,10 +2060,13 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>73</v>
+        <v>69</v>
+      </c>
+      <c r="D16" t="s">
+        <v>281</v>
       </c>
       <c r="E16" t="s">
-        <v>256</v>
+        <v>147</v>
       </c>
       <c r="F16" t="s">
         <v>12</v>
@@ -1701,7 +2075,7 @@
         <v>15</v>
       </c>
       <c r="H16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I16">
         <v>4</v>
@@ -1710,7 +2084,7 @@
         <v>6</v>
       </c>
       <c r="K16" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1721,19 +2095,22 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>73</v>
+        <v>69</v>
+      </c>
+      <c r="D17" t="s">
+        <v>352</v>
       </c>
       <c r="E17" t="s">
-        <v>256</v>
+        <v>147</v>
       </c>
       <c r="F17" t="s">
         <v>12</v>
       </c>
       <c r="G17" t="s">
-        <v>84</v>
+        <v>182</v>
       </c>
       <c r="H17" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I17">
         <v>2</v>
@@ -1750,19 +2127,22 @@
         <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>73</v>
+        <v>69</v>
+      </c>
+      <c r="D18" t="s">
+        <v>280</v>
       </c>
       <c r="E18" t="s">
-        <v>256</v>
+        <v>147</v>
       </c>
       <c r="F18" t="s">
         <v>12</v>
       </c>
       <c r="G18" t="s">
-        <v>84</v>
+        <v>182</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I18">
         <v>4</v>
@@ -1779,10 +2159,13 @@
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>73</v>
+        <v>69</v>
+      </c>
+      <c r="D19" t="s">
+        <v>279</v>
       </c>
       <c r="E19" t="s">
-        <v>256</v>
+        <v>147</v>
       </c>
       <c r="F19" t="s">
         <v>12</v>
@@ -1791,7 +2174,7 @@
         <v>15</v>
       </c>
       <c r="H19" t="s">
-        <v>92</v>
+        <v>183</v>
       </c>
       <c r="I19">
         <v>3</v>
@@ -1808,19 +2191,22 @@
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>73</v>
+        <v>69</v>
+      </c>
+      <c r="D20" t="s">
+        <v>278</v>
       </c>
       <c r="E20" t="s">
-        <v>256</v>
+        <v>147</v>
       </c>
       <c r="F20" t="s">
         <v>12</v>
       </c>
       <c r="G20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H20" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="I20">
         <v>4</v>
@@ -1829,7 +2215,7 @@
         <v>6</v>
       </c>
       <c r="K20" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1840,19 +2226,22 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>73</v>
+        <v>69</v>
+      </c>
+      <c r="D21" t="s">
+        <v>277</v>
       </c>
       <c r="E21" t="s">
-        <v>256</v>
+        <v>147</v>
       </c>
       <c r="F21" t="s">
         <v>12</v>
       </c>
       <c r="G21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I21">
         <v>3</v>
@@ -1869,22 +2258,25 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>73</v>
+        <v>69</v>
+      </c>
+      <c r="D22" t="s">
+        <v>276</v>
       </c>
       <c r="E22" t="s">
-        <v>256</v>
+        <v>147</v>
       </c>
       <c r="F22" t="s">
         <v>12</v>
       </c>
       <c r="G22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K22" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1895,19 +2287,22 @@
         <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>73</v>
+        <v>69</v>
+      </c>
+      <c r="D23" t="s">
+        <v>271</v>
       </c>
       <c r="E23" t="s">
-        <v>256</v>
+        <v>147</v>
       </c>
       <c r="F23" t="s">
         <v>6</v>
       </c>
       <c r="G23" t="s">
-        <v>84</v>
+        <v>182</v>
       </c>
       <c r="H23" t="s">
-        <v>96</v>
+        <v>270</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -1918,19 +2313,22 @@
         <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>73</v>
+        <v>69</v>
+      </c>
+      <c r="D24" t="s">
+        <v>275</v>
       </c>
       <c r="E24" t="s">
-        <v>256</v>
+        <v>147</v>
       </c>
       <c r="F24" t="s">
         <v>12</v>
       </c>
       <c r="G24" t="s">
-        <v>84</v>
+        <v>182</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -1939,7 +2337,7 @@
         <v>2</v>
       </c>
       <c r="K24" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -1950,22 +2348,22 @@
         <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D25" t="s">
-        <v>242</v>
+        <v>136</v>
       </c>
       <c r="E25" t="s">
-        <v>256</v>
+        <v>147</v>
       </c>
       <c r="F25" t="s">
         <v>6</v>
       </c>
       <c r="G25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" t="s">
         <v>24</v>
-      </c>
-      <c r="H25" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -1976,19 +2374,22 @@
         <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>73</v>
+        <v>69</v>
+      </c>
+      <c r="D26" t="s">
+        <v>286</v>
       </c>
       <c r="E26" t="s">
-        <v>256</v>
+        <v>147</v>
       </c>
       <c r="F26" t="s">
         <v>6</v>
       </c>
       <c r="G26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -2002,19 +2403,19 @@
         <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E27" t="s">
-        <v>250</v>
+        <v>141</v>
       </c>
       <c r="F27" t="s">
         <v>6</v>
       </c>
       <c r="G27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H27" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -2028,10 +2429,10 @@
         <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E28" t="s">
-        <v>250</v>
+        <v>141</v>
       </c>
       <c r="F28" t="s">
         <v>12</v>
@@ -2040,7 +2441,7 @@
         <v>15</v>
       </c>
       <c r="H28" t="s">
-        <v>98</v>
+        <v>169</v>
       </c>
       <c r="I28">
         <v>4</v>
@@ -2060,19 +2461,19 @@
         <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>41</v>
+        <v>253</v>
       </c>
       <c r="E29" t="s">
+        <v>141</v>
+      </c>
+      <c r="F29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>247</v>
+      </c>
+      <c r="H29" t="s">
         <v>250</v>
-      </c>
-      <c r="F29" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" t="s">
-        <v>24</v>
-      </c>
-      <c r="H29" t="s">
-        <v>28</v>
       </c>
       <c r="I29">
         <v>10</v>
@@ -2092,10 +2493,10 @@
         <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E30" t="s">
-        <v>250</v>
+        <v>141</v>
       </c>
       <c r="F30" t="s">
         <v>12</v>
@@ -2104,7 +2505,7 @@
         <v>15</v>
       </c>
       <c r="H30" t="s">
-        <v>99</v>
+        <v>170</v>
       </c>
       <c r="I30">
         <v>4</v>
@@ -2124,19 +2525,19 @@
         <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E31" t="s">
-        <v>251</v>
+        <v>142</v>
       </c>
       <c r="F31" t="s">
         <v>12</v>
       </c>
       <c r="G31" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H31" t="s">
-        <v>100</v>
+        <v>161</v>
       </c>
       <c r="I31">
         <v>4</v>
@@ -2156,19 +2557,19 @@
         <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>194</v>
+        <v>89</v>
       </c>
       <c r="E32" t="s">
-        <v>251</v>
+        <v>142</v>
       </c>
       <c r="F32" t="s">
         <v>12</v>
       </c>
       <c r="G32" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H32" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="I32">
         <v>4</v>
@@ -2188,19 +2589,19 @@
         <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E33" t="s">
-        <v>251</v>
+        <v>142</v>
       </c>
       <c r="F33" t="s">
         <v>12</v>
       </c>
       <c r="G33" t="s">
-        <v>23</v>
+        <v>247</v>
       </c>
       <c r="H33" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -2214,19 +2615,19 @@
         <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>251</v>
+        <v>142</v>
       </c>
       <c r="F34" t="s">
         <v>12</v>
       </c>
       <c r="G34" t="s">
-        <v>23</v>
+        <v>247</v>
       </c>
       <c r="H34" t="s">
-        <v>87</v>
+        <v>163</v>
       </c>
       <c r="I34">
         <v>6</v>
@@ -2235,7 +2636,7 @@
         <v>8</v>
       </c>
       <c r="K34" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -2249,19 +2650,19 @@
         <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E35" t="s">
-        <v>251</v>
+        <v>142</v>
       </c>
       <c r="F35" t="s">
         <v>12</v>
       </c>
       <c r="G35" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H35" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="I35">
         <v>3</v>
@@ -2281,22 +2682,22 @@
         <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E36" t="s">
-        <v>251</v>
+        <v>142</v>
       </c>
       <c r="F36" t="s">
         <v>1</v>
       </c>
       <c r="G36" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H36" t="s">
-        <v>88</v>
+        <v>166</v>
       </c>
       <c r="K36" t="s">
-        <v>168</v>
+        <v>311</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -2310,19 +2711,19 @@
         <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E37" t="s">
-        <v>251</v>
+        <v>142</v>
       </c>
       <c r="F37" t="s">
         <v>12</v>
       </c>
       <c r="G37" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H37" t="s">
-        <v>85</v>
+        <v>165</v>
       </c>
       <c r="I37">
         <v>4</v>
@@ -2342,19 +2743,19 @@
         <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>195</v>
+        <v>90</v>
       </c>
       <c r="E38" t="s">
-        <v>251</v>
+        <v>142</v>
       </c>
       <c r="F38" t="s">
         <v>6</v>
       </c>
       <c r="G38" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H38" t="s">
-        <v>102</v>
+        <v>259</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -2368,19 +2769,19 @@
         <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E39" t="s">
-        <v>251</v>
+        <v>142</v>
       </c>
       <c r="F39" t="s">
         <v>1</v>
       </c>
       <c r="G39" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H39" t="s">
-        <v>103</v>
+        <v>167</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -2394,22 +2795,22 @@
         <v>5</v>
       </c>
       <c r="D40" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E40" t="s">
-        <v>250</v>
+        <v>141</v>
       </c>
       <c r="F40" t="s">
         <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H40" t="s">
-        <v>104</v>
+        <v>171</v>
       </c>
       <c r="K40" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -2423,19 +2824,19 @@
         <v>5</v>
       </c>
       <c r="D41" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>250</v>
+        <v>141</v>
       </c>
       <c r="F41" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G41" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H41" t="s">
-        <v>105</v>
+        <v>173</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -2446,22 +2847,22 @@
         <v>20</v>
       </c>
       <c r="C42" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D42" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="E42" t="s">
-        <v>256</v>
+        <v>147</v>
       </c>
       <c r="F42" t="s">
         <v>1</v>
       </c>
       <c r="G42" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H42" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -2475,19 +2876,19 @@
         <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>215</v>
+        <v>110</v>
       </c>
       <c r="E43" t="s">
-        <v>252</v>
+        <v>143</v>
       </c>
       <c r="F43" t="s">
         <v>12</v>
       </c>
       <c r="G43" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H43" t="s">
-        <v>106</v>
+        <v>230</v>
       </c>
       <c r="I43">
         <v>8</v>
@@ -2507,19 +2908,19 @@
         <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>214</v>
+        <v>109</v>
       </c>
       <c r="E44" t="s">
-        <v>252</v>
+        <v>143</v>
       </c>
       <c r="F44" t="s">
         <v>6</v>
       </c>
       <c r="G44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H44" t="s">
-        <v>107</v>
+        <v>233</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -2533,19 +2934,19 @@
         <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>213</v>
+        <v>108</v>
       </c>
       <c r="E45" t="s">
-        <v>252</v>
+        <v>143</v>
       </c>
       <c r="F45" t="s">
         <v>1</v>
       </c>
       <c r="G45" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H45" t="s">
-        <v>108</v>
+        <v>232</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -2559,19 +2960,19 @@
         <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E46" t="s">
-        <v>252</v>
+        <v>143</v>
       </c>
       <c r="F46" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G46" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H46" t="s">
-        <v>109</v>
+        <v>231</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -2585,19 +2986,19 @@
         <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>212</v>
+        <v>107</v>
       </c>
       <c r="E47" t="s">
-        <v>252</v>
+        <v>143</v>
       </c>
       <c r="F47" t="s">
         <v>12</v>
       </c>
       <c r="G47" t="s">
-        <v>84</v>
+        <v>182</v>
       </c>
       <c r="H47" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I47">
         <v>2</v>
@@ -2617,19 +3018,19 @@
         <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>227</v>
+        <v>122</v>
       </c>
       <c r="E48" t="s">
-        <v>252</v>
+        <v>143</v>
       </c>
       <c r="F48" t="s">
         <v>12</v>
       </c>
       <c r="G48" t="s">
-        <v>84</v>
+        <v>182</v>
       </c>
       <c r="H48" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I48">
         <v>3</v>
@@ -2649,19 +3050,19 @@
         <v>16</v>
       </c>
       <c r="D49" t="s">
-        <v>220</v>
+        <v>115</v>
       </c>
       <c r="E49" t="s">
-        <v>253</v>
+        <v>144</v>
       </c>
       <c r="F49" t="s">
         <v>6</v>
       </c>
       <c r="G49" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H49" t="s">
-        <v>176</v>
+        <v>226</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -2675,22 +3076,22 @@
         <v>16</v>
       </c>
       <c r="D50" t="s">
-        <v>221</v>
+        <v>116</v>
       </c>
       <c r="E50" t="s">
-        <v>253</v>
+        <v>144</v>
       </c>
       <c r="F50" t="s">
         <v>1</v>
       </c>
       <c r="G50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H50" t="s">
-        <v>177</v>
+        <v>223</v>
       </c>
       <c r="K50" t="s">
-        <v>170</v>
+        <v>224</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -2704,19 +3105,19 @@
         <v>16</v>
       </c>
       <c r="D51" t="s">
-        <v>222</v>
+        <v>117</v>
       </c>
       <c r="E51" t="s">
-        <v>253</v>
+        <v>144</v>
       </c>
       <c r="F51" t="s">
         <v>12</v>
       </c>
       <c r="G51" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H51" t="s">
-        <v>110</v>
+        <v>218</v>
       </c>
       <c r="I51">
         <v>3</v>
@@ -2736,19 +3137,19 @@
         <v>16</v>
       </c>
       <c r="D52" t="s">
-        <v>223</v>
+        <v>118</v>
       </c>
       <c r="E52" t="s">
-        <v>253</v>
+        <v>144</v>
       </c>
       <c r="F52" t="s">
         <v>12</v>
       </c>
       <c r="G52" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H52" t="s">
-        <v>111</v>
+        <v>219</v>
       </c>
       <c r="I52">
         <v>4</v>
@@ -2768,22 +3169,22 @@
         <v>16</v>
       </c>
       <c r="D53" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E53" t="s">
-        <v>253</v>
+        <v>144</v>
       </c>
       <c r="F53" t="s">
         <v>6</v>
       </c>
       <c r="G53" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H53" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K53" t="s">
-        <v>171</v>
+        <v>227</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -2797,22 +3198,22 @@
         <v>16</v>
       </c>
       <c r="D54" t="s">
-        <v>224</v>
+        <v>119</v>
       </c>
       <c r="E54" t="s">
-        <v>253</v>
+        <v>144</v>
       </c>
       <c r="F54" t="s">
         <v>6</v>
       </c>
       <c r="G54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H54" t="s">
-        <v>113</v>
+        <v>228</v>
       </c>
       <c r="K54" t="s">
-        <v>94</v>
+        <v>229</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -2826,19 +3227,19 @@
         <v>16</v>
       </c>
       <c r="D55" t="s">
-        <v>225</v>
+        <v>120</v>
       </c>
       <c r="E55" t="s">
-        <v>253</v>
+        <v>144</v>
       </c>
       <c r="F55" t="s">
         <v>12</v>
       </c>
       <c r="G55" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H55" t="s">
-        <v>114</v>
+        <v>220</v>
       </c>
       <c r="I55">
         <v>3</v>
@@ -2847,7 +3248,7 @@
         <v>9</v>
       </c>
       <c r="K55" t="s">
-        <v>172</v>
+        <v>221</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -2861,19 +3262,25 @@
         <v>18</v>
       </c>
       <c r="D56" t="s">
-        <v>198</v>
+        <v>93</v>
       </c>
       <c r="E56" t="s">
-        <v>254</v>
+        <v>145</v>
       </c>
       <c r="F56" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G56" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H56" t="s">
-        <v>162</v>
+        <v>338</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -2887,19 +3294,25 @@
         <v>18</v>
       </c>
       <c r="D57" t="s">
-        <v>199</v>
+        <v>94</v>
       </c>
       <c r="E57" t="s">
+        <v>145</v>
+      </c>
+      <c r="F57" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" t="s">
+        <v>71</v>
+      </c>
+      <c r="H57" t="s">
+        <v>267</v>
+      </c>
+      <c r="I57" t="s">
+        <v>255</v>
+      </c>
+      <c r="J57" t="s">
         <v>254</v>
-      </c>
-      <c r="F57" t="s">
-        <v>12</v>
-      </c>
-      <c r="G57" t="s">
-        <v>23</v>
-      </c>
-      <c r="H57" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -2913,19 +3326,19 @@
         <v>18</v>
       </c>
       <c r="D58" t="s">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="E58" t="s">
-        <v>254</v>
+        <v>145</v>
       </c>
       <c r="F58" t="s">
         <v>12</v>
       </c>
       <c r="G58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H58" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="I58">
         <v>2</v>
@@ -2934,7 +3347,7 @@
         <v>3</v>
       </c>
       <c r="K58" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -2948,19 +3361,19 @@
         <v>18</v>
       </c>
       <c r="D59" t="s">
-        <v>201</v>
+        <v>96</v>
       </c>
       <c r="E59" t="s">
-        <v>254</v>
+        <v>145</v>
       </c>
       <c r="F59" t="s">
         <v>1</v>
       </c>
       <c r="G59" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H59" t="s">
-        <v>115</v>
+        <v>179</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -2974,19 +3387,25 @@
         <v>18</v>
       </c>
       <c r="D60" t="s">
-        <v>202</v>
+        <v>97</v>
       </c>
       <c r="E60" t="s">
+        <v>145</v>
+      </c>
+      <c r="F60" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60" t="s">
+        <v>71</v>
+      </c>
+      <c r="H60" t="s">
+        <v>264</v>
+      </c>
+      <c r="I60" t="s">
+        <v>255</v>
+      </c>
+      <c r="J60" t="s">
         <v>254</v>
-      </c>
-      <c r="F60" t="s">
-        <v>6</v>
-      </c>
-      <c r="G60" t="s">
-        <v>75</v>
-      </c>
-      <c r="H60" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -3000,19 +3419,19 @@
         <v>18</v>
       </c>
       <c r="D61" t="s">
-        <v>203</v>
+        <v>98</v>
       </c>
       <c r="E61" t="s">
-        <v>254</v>
+        <v>145</v>
       </c>
       <c r="F61" t="s">
         <v>12</v>
       </c>
       <c r="G61" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H61" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I61">
         <v>5</v>
@@ -3021,7 +3440,7 @@
         <v>10</v>
       </c>
       <c r="K61" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -3035,19 +3454,19 @@
         <v>18</v>
       </c>
       <c r="D62" t="s">
-        <v>204</v>
+        <v>99</v>
       </c>
       <c r="E62" t="s">
-        <v>254</v>
+        <v>145</v>
       </c>
       <c r="F62" t="s">
         <v>12</v>
       </c>
       <c r="G62" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H62" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I62">
         <v>1</v>
@@ -3056,7 +3475,7 @@
         <v>3</v>
       </c>
       <c r="K62" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -3067,13 +3486,13 @@
         <v>20</v>
       </c>
       <c r="C63" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D63" t="s">
-        <v>240</v>
+        <v>134</v>
       </c>
       <c r="E63" t="s">
-        <v>256</v>
+        <v>147</v>
       </c>
       <c r="F63" t="s">
         <v>12</v>
@@ -3082,7 +3501,7 @@
         <v>15</v>
       </c>
       <c r="H63" t="s">
-        <v>117</v>
+        <v>187</v>
       </c>
       <c r="I63">
         <v>1</v>
@@ -3091,7 +3510,7 @@
         <v>2</v>
       </c>
       <c r="K63" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -3104,23 +3523,20 @@
       <c r="C64" t="s">
         <v>19</v>
       </c>
+      <c r="D64" t="s">
+        <v>330</v>
+      </c>
       <c r="E64" t="s">
-        <v>255</v>
+        <v>146</v>
       </c>
       <c r="F64" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G64" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H64" t="s">
-        <v>118</v>
-      </c>
-      <c r="I64" t="s">
-        <v>179</v>
-      </c>
-      <c r="J64" t="s">
-        <v>180</v>
+        <v>321</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -3133,17 +3549,20 @@
       <c r="C65" t="s">
         <v>19</v>
       </c>
+      <c r="D65" t="s">
+        <v>340</v>
+      </c>
       <c r="E65" t="s">
-        <v>255</v>
+        <v>146</v>
       </c>
       <c r="F65" t="s">
         <v>12</v>
       </c>
       <c r="G65" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H65" t="s">
-        <v>119</v>
+        <v>199</v>
       </c>
       <c r="I65">
         <v>8</v>
@@ -3162,17 +3581,20 @@
       <c r="C66" t="s">
         <v>19</v>
       </c>
+      <c r="D66" t="s">
+        <v>341</v>
+      </c>
       <c r="E66" t="s">
-        <v>255</v>
+        <v>146</v>
       </c>
       <c r="F66" t="s">
         <v>12</v>
       </c>
       <c r="G66" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H66" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I66">
         <v>4</v>
@@ -3191,8 +3613,11 @@
       <c r="C67" t="s">
         <v>19</v>
       </c>
+      <c r="D67" t="s">
+        <v>342</v>
+      </c>
       <c r="E67" t="s">
-        <v>255</v>
+        <v>146</v>
       </c>
       <c r="F67" t="s">
         <v>12</v>
@@ -3201,7 +3626,7 @@
         <v>15</v>
       </c>
       <c r="H67" t="s">
-        <v>81</v>
+        <v>168</v>
       </c>
       <c r="I67">
         <v>4</v>
@@ -3220,17 +3645,20 @@
       <c r="C68" t="s">
         <v>19</v>
       </c>
+      <c r="D68" t="s">
+        <v>343</v>
+      </c>
       <c r="E68" t="s">
-        <v>255</v>
+        <v>146</v>
       </c>
       <c r="F68" t="s">
         <v>12</v>
       </c>
       <c r="G68" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H68" t="s">
-        <v>121</v>
+        <v>200</v>
       </c>
       <c r="I68">
         <v>5</v>
@@ -3239,7 +3667,7 @@
         <v>8</v>
       </c>
       <c r="K68" t="s">
-        <v>122</v>
+        <v>201</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -3252,17 +3680,20 @@
       <c r="C69" t="s">
         <v>19</v>
       </c>
+      <c r="D69" t="s">
+        <v>344</v>
+      </c>
       <c r="E69" t="s">
-        <v>257</v>
+        <v>148</v>
       </c>
       <c r="F69" t="s">
         <v>12</v>
       </c>
       <c r="G69" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H69" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I69">
         <v>2</v>
@@ -3271,7 +3702,7 @@
         <v>3</v>
       </c>
       <c r="K69" t="s">
-        <v>157</v>
+        <v>202</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -3282,13 +3713,13 @@
         <v>4</v>
       </c>
       <c r="C70" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D70" t="s">
-        <v>205</v>
+        <v>100</v>
       </c>
       <c r="E70" t="s">
-        <v>258</v>
+        <v>149</v>
       </c>
       <c r="F70" t="s">
         <v>12</v>
@@ -3297,7 +3728,7 @@
         <v>15</v>
       </c>
       <c r="H70" t="s">
-        <v>123</v>
+        <v>191</v>
       </c>
       <c r="I70">
         <v>2</v>
@@ -3314,22 +3745,22 @@
         <v>4</v>
       </c>
       <c r="C71" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D71" t="s">
-        <v>206</v>
+        <v>101</v>
       </c>
       <c r="E71" t="s">
-        <v>258</v>
+        <v>149</v>
       </c>
       <c r="F71" t="s">
         <v>12</v>
       </c>
       <c r="G71" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H71" t="s">
-        <v>124</v>
+        <v>192</v>
       </c>
       <c r="I71">
         <v>8</v>
@@ -3346,13 +3777,13 @@
         <v>4</v>
       </c>
       <c r="C72" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D72" t="s">
-        <v>207</v>
+        <v>102</v>
       </c>
       <c r="E72" t="s">
-        <v>258</v>
+        <v>149</v>
       </c>
       <c r="F72" t="s">
         <v>12</v>
@@ -3361,7 +3792,7 @@
         <v>15</v>
       </c>
       <c r="H72" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I72">
         <v>6</v>
@@ -3378,22 +3809,22 @@
         <v>4</v>
       </c>
       <c r="C73" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D73" t="s">
-        <v>208</v>
+        <v>103</v>
       </c>
       <c r="E73" t="s">
-        <v>258</v>
+        <v>149</v>
       </c>
       <c r="F73" t="s">
         <v>12</v>
       </c>
       <c r="G73" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H73" t="s">
-        <v>125</v>
+        <v>193</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -3404,25 +3835,25 @@
         <v>4</v>
       </c>
       <c r="C74" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D74" t="s">
-        <v>209</v>
+        <v>104</v>
       </c>
       <c r="E74" t="s">
-        <v>258</v>
+        <v>149</v>
       </c>
       <c r="F74" t="s">
         <v>12</v>
       </c>
       <c r="G74" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H74" t="s">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="K74" t="s">
-        <v>156</v>
+        <v>194</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -3433,22 +3864,22 @@
         <v>4</v>
       </c>
       <c r="C75" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D75" t="s">
-        <v>210</v>
+        <v>105</v>
       </c>
       <c r="E75" t="s">
-        <v>258</v>
+        <v>149</v>
       </c>
       <c r="F75" t="s">
         <v>12</v>
       </c>
       <c r="G75" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H75" t="s">
-        <v>127</v>
+        <v>195</v>
       </c>
       <c r="I75">
         <v>4</v>
@@ -3465,13 +3896,13 @@
         <v>4</v>
       </c>
       <c r="C76" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D76" t="s">
-        <v>211</v>
+        <v>106</v>
       </c>
       <c r="E76" t="s">
-        <v>258</v>
+        <v>149</v>
       </c>
       <c r="F76" t="s">
         <v>12</v>
@@ -3480,7 +3911,7 @@
         <v>15</v>
       </c>
       <c r="H76" t="s">
-        <v>128</v>
+        <v>196</v>
       </c>
       <c r="I76">
         <v>6</v>
@@ -3497,28 +3928,22 @@
         <v>4</v>
       </c>
       <c r="C77" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D77" t="s">
-        <v>239</v>
+        <v>133</v>
       </c>
       <c r="E77" t="s">
-        <v>257</v>
+        <v>148</v>
       </c>
       <c r="F77" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G77" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="H77" t="s">
-        <v>129</v>
-      </c>
-      <c r="I77">
-        <v>2</v>
-      </c>
-      <c r="J77">
-        <v>4</v>
+        <v>358</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -3529,22 +3954,22 @@
         <v>4</v>
       </c>
       <c r="C78" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D78" t="s">
-        <v>238</v>
+        <v>132</v>
       </c>
       <c r="E78" t="s">
-        <v>257</v>
+        <v>148</v>
       </c>
       <c r="F78" t="s">
         <v>12</v>
       </c>
       <c r="G78" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H78" t="s">
-        <v>130</v>
+        <v>203</v>
       </c>
       <c r="I78">
         <v>5</v>
@@ -3561,13 +3986,13 @@
         <v>4</v>
       </c>
       <c r="C79" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D79" t="s">
-        <v>234</v>
+        <v>128</v>
       </c>
       <c r="E79" t="s">
-        <v>257</v>
+        <v>148</v>
       </c>
       <c r="F79" t="s">
         <v>12</v>
@@ -3576,7 +4001,7 @@
         <v>15</v>
       </c>
       <c r="H79" t="s">
-        <v>131</v>
+        <v>204</v>
       </c>
       <c r="I79">
         <v>2</v>
@@ -3593,22 +4018,22 @@
         <v>4</v>
       </c>
       <c r="C80" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D80" t="s">
-        <v>235</v>
+        <v>129</v>
       </c>
       <c r="E80" t="s">
-        <v>257</v>
+        <v>148</v>
       </c>
       <c r="F80" t="s">
         <v>12</v>
       </c>
       <c r="G80" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H80" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="I80">
         <v>1</v>
@@ -3625,22 +4050,22 @@
         <v>4</v>
       </c>
       <c r="C81" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D81" t="s">
-        <v>236</v>
+        <v>130</v>
       </c>
       <c r="E81" t="s">
-        <v>257</v>
+        <v>148</v>
       </c>
       <c r="F81" t="s">
         <v>1</v>
       </c>
       <c r="G81" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H81" t="s">
-        <v>132</v>
+        <v>206</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -3651,22 +4076,22 @@
         <v>4</v>
       </c>
       <c r="C82" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D82" t="s">
-        <v>237</v>
+        <v>131</v>
       </c>
       <c r="E82" t="s">
-        <v>257</v>
+        <v>148</v>
       </c>
       <c r="F82" t="s">
         <v>12</v>
       </c>
       <c r="G82" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H82" t="s">
-        <v>133</v>
+        <v>205</v>
       </c>
       <c r="I82">
         <v>3</v>
@@ -3683,22 +4108,22 @@
         <v>4</v>
       </c>
       <c r="C83" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D83" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E83" t="s">
-        <v>259</v>
+        <v>150</v>
       </c>
       <c r="F83" t="s">
         <v>12</v>
       </c>
       <c r="G83" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H83" t="s">
-        <v>134</v>
+        <v>207</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -3709,10 +4134,13 @@
         <v>4</v>
       </c>
       <c r="C84" t="s">
-        <v>67</v>
+        <v>63</v>
+      </c>
+      <c r="D84" t="s">
+        <v>351</v>
       </c>
       <c r="E84" t="s">
-        <v>259</v>
+        <v>150</v>
       </c>
       <c r="F84" t="s">
         <v>12</v>
@@ -3721,7 +4149,7 @@
         <v>15</v>
       </c>
       <c r="H84" t="s">
-        <v>135</v>
+        <v>208</v>
       </c>
       <c r="I84">
         <v>2</v>
@@ -3738,19 +4166,22 @@
         <v>4</v>
       </c>
       <c r="C85" t="s">
-        <v>67</v>
+        <v>63</v>
+      </c>
+      <c r="D85" t="s">
+        <v>353</v>
       </c>
       <c r="E85" t="s">
-        <v>259</v>
+        <v>150</v>
       </c>
       <c r="F85" t="s">
         <v>12</v>
       </c>
       <c r="G85" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H85" t="s">
-        <v>178</v>
+        <v>209</v>
       </c>
       <c r="I85">
         <v>3</v>
@@ -3767,19 +4198,22 @@
         <v>4</v>
       </c>
       <c r="C86" t="s">
-        <v>67</v>
+        <v>63</v>
+      </c>
+      <c r="D86" t="s">
+        <v>365</v>
       </c>
       <c r="E86" t="s">
-        <v>259</v>
+        <v>150</v>
       </c>
       <c r="F86" t="s">
         <v>12</v>
       </c>
       <c r="G86" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H86" t="s">
-        <v>137</v>
+        <v>210</v>
       </c>
       <c r="I86">
         <v>3</v>
@@ -3796,19 +4230,22 @@
         <v>4</v>
       </c>
       <c r="C87" t="s">
-        <v>67</v>
+        <v>63</v>
+      </c>
+      <c r="D87" t="s">
+        <v>354</v>
       </c>
       <c r="E87" t="s">
-        <v>259</v>
+        <v>150</v>
       </c>
       <c r="F87" t="s">
         <v>12</v>
       </c>
       <c r="G87" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H87" t="s">
-        <v>138</v>
+        <v>211</v>
       </c>
       <c r="I87">
         <v>5</v>
@@ -3825,19 +4262,22 @@
         <v>4</v>
       </c>
       <c r="C88" t="s">
-        <v>67</v>
+        <v>63</v>
+      </c>
+      <c r="D88" t="s">
+        <v>372</v>
       </c>
       <c r="E88" t="s">
-        <v>259</v>
+        <v>150</v>
       </c>
       <c r="F88" t="s">
         <v>12</v>
       </c>
       <c r="G88" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H88" t="s">
-        <v>233</v>
+        <v>355</v>
       </c>
       <c r="I88">
         <v>2</v>
@@ -3854,19 +4294,22 @@
         <v>4</v>
       </c>
       <c r="C89" t="s">
-        <v>67</v>
+        <v>63</v>
+      </c>
+      <c r="D89" t="s">
+        <v>357</v>
       </c>
       <c r="E89" t="s">
-        <v>259</v>
+        <v>150</v>
       </c>
       <c r="F89" t="s">
         <v>12</v>
       </c>
       <c r="G89" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H89" t="s">
-        <v>139</v>
+        <v>212</v>
       </c>
       <c r="I89">
         <v>3</v>
@@ -3883,13 +4326,13 @@
         <v>4</v>
       </c>
       <c r="C90" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D90" t="s">
-        <v>231</v>
+        <v>126</v>
       </c>
       <c r="E90" t="s">
-        <v>259</v>
+        <v>150</v>
       </c>
       <c r="F90" t="s">
         <v>12</v>
@@ -3898,7 +4341,7 @@
         <v>15</v>
       </c>
       <c r="H90" t="s">
-        <v>81</v>
+        <v>168</v>
       </c>
       <c r="I90">
         <v>4</v>
@@ -3915,22 +4358,22 @@
         <v>4</v>
       </c>
       <c r="C91" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D91" t="s">
-        <v>232</v>
+        <v>127</v>
       </c>
       <c r="E91" t="s">
-        <v>259</v>
+        <v>150</v>
       </c>
       <c r="F91" t="s">
         <v>12</v>
       </c>
       <c r="G91" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H91" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="I91">
         <v>4</v>
@@ -3947,22 +4390,22 @@
         <v>4</v>
       </c>
       <c r="C92" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D92" t="s">
-        <v>244</v>
+        <v>137</v>
       </c>
       <c r="E92" t="s">
-        <v>260</v>
+        <v>151</v>
       </c>
       <c r="F92" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G92" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="H92" t="s">
-        <v>141</v>
+        <v>335</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -3973,25 +4416,25 @@
         <v>4</v>
       </c>
       <c r="C93" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D93" t="s">
-        <v>182</v>
+        <v>80</v>
       </c>
       <c r="E93" t="s">
-        <v>260</v>
+        <v>151</v>
       </c>
       <c r="F93" t="s">
         <v>1</v>
       </c>
       <c r="G93" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H93" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="K93" t="s">
-        <v>152</v>
+        <v>312</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -4002,22 +4445,22 @@
         <v>4</v>
       </c>
       <c r="C94" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D94" t="s">
-        <v>181</v>
+        <v>79</v>
       </c>
       <c r="E94" t="s">
-        <v>260</v>
+        <v>151</v>
       </c>
       <c r="F94" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G94" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H94" t="s">
-        <v>143</v>
+        <v>256</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -4028,22 +4471,22 @@
         <v>4</v>
       </c>
       <c r="C95" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D95" t="s">
-        <v>183</v>
+        <v>81</v>
       </c>
       <c r="E95" t="s">
-        <v>260</v>
+        <v>151</v>
       </c>
       <c r="F95" t="s">
         <v>12</v>
       </c>
       <c r="G95" t="s">
-        <v>15</v>
+        <v>248</v>
       </c>
       <c r="H95" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="I95">
         <v>2</v>
@@ -4060,22 +4503,22 @@
         <v>4</v>
       </c>
       <c r="C96" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D96" t="s">
-        <v>184</v>
+        <v>82</v>
       </c>
       <c r="E96" t="s">
-        <v>260</v>
+        <v>151</v>
       </c>
       <c r="F96" t="s">
         <v>12</v>
       </c>
       <c r="G96" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H96" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="I96">
         <v>6</v>
@@ -4092,22 +4535,22 @@
         <v>4</v>
       </c>
       <c r="C97" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D97" t="s">
-        <v>185</v>
+        <v>83</v>
       </c>
       <c r="E97" t="s">
-        <v>260</v>
+        <v>151</v>
       </c>
       <c r="F97" t="s">
         <v>12</v>
       </c>
       <c r="G97" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H97" t="s">
-        <v>64</v>
+        <v>235</v>
       </c>
       <c r="I97">
         <v>6</v>
@@ -4127,19 +4570,19 @@
         <v>16</v>
       </c>
       <c r="D98" t="s">
-        <v>218</v>
+        <v>113</v>
       </c>
       <c r="E98" t="s">
-        <v>253</v>
+        <v>144</v>
       </c>
       <c r="F98" t="s">
         <v>12</v>
       </c>
       <c r="G98" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H98" t="s">
-        <v>112</v>
+        <v>222</v>
       </c>
       <c r="I98">
         <v>1</v>
@@ -4159,19 +4602,19 @@
         <v>16</v>
       </c>
       <c r="D99" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="E99" t="s">
-        <v>253</v>
+        <v>144</v>
       </c>
       <c r="F99" t="s">
         <v>1</v>
       </c>
       <c r="G99" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H99" t="s">
-        <v>136</v>
+        <v>225</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
@@ -4182,19 +4625,22 @@
         <v>4</v>
       </c>
       <c r="C100" t="s">
-        <v>67</v>
+        <v>63</v>
+      </c>
+      <c r="D100" t="s">
+        <v>356</v>
       </c>
       <c r="E100" t="s">
-        <v>259</v>
+        <v>150</v>
       </c>
       <c r="F100" t="s">
         <v>6</v>
       </c>
       <c r="G100" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H100" t="s">
-        <v>145</v>
+        <v>216</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
@@ -4205,22 +4651,22 @@
         <v>4</v>
       </c>
       <c r="C101" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D101" t="s">
-        <v>230</v>
+        <v>125</v>
       </c>
       <c r="E101" t="s">
-        <v>259</v>
+        <v>150</v>
       </c>
       <c r="F101" t="s">
         <v>12</v>
       </c>
       <c r="G101" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H101" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="I101">
         <v>1</v>
@@ -4237,25 +4683,25 @@
         <v>4</v>
       </c>
       <c r="C102" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D102" t="s">
-        <v>228</v>
+        <v>123</v>
       </c>
       <c r="E102" t="s">
-        <v>259</v>
+        <v>150</v>
       </c>
       <c r="F102" t="s">
         <v>1</v>
       </c>
       <c r="G102" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H102" t="s">
-        <v>154</v>
+        <v>213</v>
       </c>
       <c r="K102" t="s">
-        <v>155</v>
+        <v>214</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
@@ -4266,22 +4712,22 @@
         <v>4</v>
       </c>
       <c r="C103" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D103" t="s">
-        <v>186</v>
+        <v>239</v>
       </c>
       <c r="E103" t="s">
-        <v>260</v>
+        <v>151</v>
       </c>
       <c r="F103" t="s">
         <v>6</v>
       </c>
       <c r="G103" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H103" t="s">
-        <v>153</v>
+        <v>257</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
@@ -4292,22 +4738,22 @@
         <v>4</v>
       </c>
       <c r="C104" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D104" t="s">
-        <v>187</v>
+        <v>84</v>
       </c>
       <c r="E104" t="s">
-        <v>260</v>
+        <v>151</v>
       </c>
       <c r="F104" t="s">
         <v>12</v>
       </c>
       <c r="G104" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H104" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="I104">
         <v>4</v>
@@ -4324,22 +4770,22 @@
         <v>4</v>
       </c>
       <c r="C105" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D105" t="s">
-        <v>188</v>
+        <v>238</v>
       </c>
       <c r="E105" t="s">
-        <v>260</v>
+        <v>151</v>
       </c>
       <c r="F105" t="s">
         <v>6</v>
       </c>
       <c r="G105" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H105" t="s">
-        <v>151</v>
+        <v>258</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
@@ -4350,22 +4796,22 @@
         <v>4</v>
       </c>
       <c r="C106" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D106" t="s">
-        <v>189</v>
+        <v>85</v>
       </c>
       <c r="E106" t="s">
-        <v>260</v>
+        <v>151</v>
       </c>
       <c r="F106" t="s">
         <v>1</v>
       </c>
       <c r="G106" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H106" t="s">
-        <v>150</v>
+        <v>237</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
@@ -4376,13 +4822,13 @@
         <v>4</v>
       </c>
       <c r="C107" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D107" t="s">
-        <v>190</v>
+        <v>236</v>
       </c>
       <c r="E107" t="s">
-        <v>260</v>
+        <v>151</v>
       </c>
       <c r="F107" t="s">
         <v>12</v>
@@ -4391,7 +4837,7 @@
         <v>15</v>
       </c>
       <c r="H107" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="I107">
         <v>2</v>
@@ -4408,22 +4854,22 @@
         <v>4</v>
       </c>
       <c r="C108" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D108" t="s">
-        <v>191</v>
+        <v>86</v>
       </c>
       <c r="E108" t="s">
-        <v>260</v>
+        <v>151</v>
       </c>
       <c r="F108" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G108" t="s">
-        <v>23</v>
+        <v>247</v>
       </c>
       <c r="H108" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
@@ -4434,22 +4880,22 @@
         <v>4</v>
       </c>
       <c r="C109" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D109" t="s">
-        <v>192</v>
+        <v>87</v>
       </c>
       <c r="E109" t="s">
-        <v>260</v>
+        <v>151</v>
       </c>
       <c r="F109" t="s">
         <v>12</v>
       </c>
       <c r="G109" t="s">
-        <v>24</v>
+        <v>247</v>
       </c>
       <c r="H109" t="s">
-        <v>28</v>
+        <v>250</v>
       </c>
       <c r="I109">
         <v>6</v>
@@ -4466,25 +4912,25 @@
         <v>20</v>
       </c>
       <c r="C110" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D110" t="s">
-        <v>241</v>
+        <v>135</v>
       </c>
       <c r="E110" t="s">
-        <v>256</v>
+        <v>147</v>
       </c>
       <c r="F110" t="s">
         <v>12</v>
       </c>
       <c r="G110" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H110" t="s">
-        <v>147</v>
+        <v>293</v>
       </c>
       <c r="K110" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
@@ -4495,7 +4941,10 @@
         <v>20</v>
       </c>
       <c r="C111" t="s">
-        <v>74</v>
+        <v>70</v>
+      </c>
+      <c r="D111" t="s">
+        <v>319</v>
       </c>
       <c r="E111" t="str">
         <f>"-map"</f>
@@ -4505,10 +4954,10 @@
         <v>12</v>
       </c>
       <c r="G111" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H111" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
@@ -4519,7 +4968,10 @@
         <v>20</v>
       </c>
       <c r="C112" t="s">
-        <v>74</v>
+        <v>70</v>
+      </c>
+      <c r="D112" t="s">
+        <v>345</v>
       </c>
       <c r="E112" t="str">
         <f>"-map"</f>
@@ -4529,13 +4981,13 @@
         <v>12</v>
       </c>
       <c r="G112" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H112" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -4543,7 +4995,10 @@
         <v>20</v>
       </c>
       <c r="C113" t="s">
-        <v>74</v>
+        <v>70</v>
+      </c>
+      <c r="D113" t="s">
+        <v>346</v>
       </c>
       <c r="E113" t="str">
         <f>"-map"</f>
@@ -4553,13 +5008,13 @@
         <v>12</v>
       </c>
       <c r="G113" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H113" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -4567,7 +5022,10 @@
         <v>20</v>
       </c>
       <c r="C114" t="s">
-        <v>74</v>
+        <v>70</v>
+      </c>
+      <c r="D114" t="s">
+        <v>347</v>
       </c>
       <c r="E114" t="str">
         <f>"-map"</f>
@@ -4577,13 +5035,13 @@
         <v>12</v>
       </c>
       <c r="G114" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H114" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -4591,7 +5049,10 @@
         <v>20</v>
       </c>
       <c r="C115" t="s">
-        <v>80</v>
+        <v>76</v>
+      </c>
+      <c r="D115" t="s">
+        <v>287</v>
       </c>
       <c r="E115" s="2" t="str">
         <f>"-landmark"</f>
@@ -4601,13 +5062,13 @@
         <v>12</v>
       </c>
       <c r="G115" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H115" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -4615,7 +5076,10 @@
         <v>20</v>
       </c>
       <c r="C116" t="s">
-        <v>80</v>
+        <v>76</v>
+      </c>
+      <c r="D116" t="s">
+        <v>291</v>
       </c>
       <c r="E116" s="2" t="str">
         <f>"-landmark"</f>
@@ -4625,13 +5089,13 @@
         <v>12</v>
       </c>
       <c r="G116" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H116" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -4639,25 +5103,25 @@
         <v>4</v>
       </c>
       <c r="C117" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D117" t="s">
-        <v>229</v>
+        <v>124</v>
       </c>
       <c r="E117" t="s">
-        <v>259</v>
+        <v>150</v>
       </c>
       <c r="F117" t="s">
         <v>1</v>
       </c>
       <c r="G117" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H117" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -4665,25 +5129,25 @@
         <v>20</v>
       </c>
       <c r="C118" t="s">
-        <v>245</v>
+        <v>138</v>
       </c>
       <c r="D118" t="s">
-        <v>249</v>
+        <v>140</v>
       </c>
       <c r="E118" t="s">
-        <v>261</v>
+        <v>152</v>
       </c>
       <c r="F118" t="s">
         <v>1</v>
       </c>
       <c r="G118" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H118" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -4691,25 +5155,25 @@
         <v>20</v>
       </c>
       <c r="C119" t="s">
-        <v>245</v>
+        <v>138</v>
       </c>
       <c r="D119" t="s">
-        <v>248</v>
+        <v>139</v>
       </c>
       <c r="E119" t="s">
-        <v>261</v>
+        <v>152</v>
       </c>
       <c r="F119" t="s">
         <v>6</v>
       </c>
       <c r="G119" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H119" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -4717,23 +5181,26 @@
         <v>20</v>
       </c>
       <c r="C120" t="s">
-        <v>80</v>
+        <v>76</v>
+      </c>
+      <c r="D120" t="s">
+        <v>292</v>
       </c>
       <c r="E120" s="2" t="str">
-        <f t="shared" ref="E120:E126" si="0">"-landmark"</f>
+        <f>"-landmark"</f>
         <v>-landmark</v>
       </c>
       <c r="F120" t="s">
         <v>12</v>
       </c>
       <c r="G120" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H120" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -4741,23 +5208,26 @@
         <v>20</v>
       </c>
       <c r="C121" t="s">
-        <v>80</v>
+        <v>76</v>
+      </c>
+      <c r="D121" t="s">
+        <v>288</v>
       </c>
       <c r="E121" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>"-landmark"</f>
         <v>-landmark</v>
       </c>
       <c r="F121" t="s">
         <v>12</v>
       </c>
       <c r="G121" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H121" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -4765,23 +5235,26 @@
         <v>20</v>
       </c>
       <c r="C122" t="s">
-        <v>80</v>
+        <v>76</v>
+      </c>
+      <c r="D122" t="s">
+        <v>289</v>
       </c>
       <c r="E122" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>"-landmark"</f>
         <v>-landmark</v>
       </c>
       <c r="F122" t="s">
         <v>12</v>
       </c>
       <c r="G122" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H122" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -4789,34 +5262,1112 @@
         <v>20</v>
       </c>
       <c r="C123" t="s">
-        <v>80</v>
+        <v>76</v>
+      </c>
+      <c r="D123" t="s">
+        <v>290</v>
       </c>
       <c r="E123" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>"-landmark"</f>
         <v>-landmark</v>
       </c>
       <c r="F123" t="s">
         <v>12</v>
       </c>
       <c r="G123" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H123" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>4</v>
+      </c>
+      <c r="C124" t="s">
+        <v>65</v>
+      </c>
+      <c r="D124" t="s">
+        <v>137</v>
+      </c>
+      <c r="E124" t="s">
+        <v>151</v>
+      </c>
+      <c r="F124" t="s">
+        <v>1</v>
+      </c>
+      <c r="G124" t="s">
+        <v>71</v>
+      </c>
+      <c r="H124" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>4</v>
+      </c>
+      <c r="C125" t="s">
+        <v>65</v>
+      </c>
+      <c r="D125" t="s">
+        <v>241</v>
+      </c>
+      <c r="E125" t="s">
+        <v>151</v>
+      </c>
+      <c r="F125" t="s">
+        <v>6</v>
+      </c>
+      <c r="G125" t="s">
+        <v>182</v>
+      </c>
+      <c r="H125" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>4</v>
+      </c>
+      <c r="C126" t="s">
+        <v>65</v>
+      </c>
+      <c r="D126" t="s">
+        <v>242</v>
+      </c>
+      <c r="E126" t="s">
+        <v>151</v>
+      </c>
+      <c r="F126" t="s">
+        <v>6</v>
+      </c>
+      <c r="G126" t="s">
+        <v>27</v>
+      </c>
+      <c r="H126" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>4</v>
+      </c>
+      <c r="C127" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" t="s">
+        <v>244</v>
+      </c>
+      <c r="E127" t="s">
+        <v>142</v>
+      </c>
+      <c r="F127" t="s">
+        <v>12</v>
+      </c>
+      <c r="G127" t="s">
+        <v>245</v>
+      </c>
+      <c r="H127" t="s">
+        <v>246</v>
+      </c>
+      <c r="I127">
+        <v>5</v>
+      </c>
+      <c r="J127">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>4</v>
+      </c>
+      <c r="C128" t="s">
+        <v>5</v>
+      </c>
+      <c r="D128" t="s">
+        <v>252</v>
+      </c>
+      <c r="E128" t="s">
+        <v>141</v>
+      </c>
+      <c r="F128" t="s">
+        <v>12</v>
+      </c>
+      <c r="G128" t="s">
+        <v>22</v>
+      </c>
+      <c r="H128" t="s">
+        <v>251</v>
+      </c>
+      <c r="I128">
+        <v>2</v>
+      </c>
+      <c r="J128">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>4</v>
+      </c>
+      <c r="C129" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" t="s">
+        <v>260</v>
+      </c>
+      <c r="E129" t="s">
+        <v>142</v>
+      </c>
+      <c r="F129" t="s">
+        <v>12</v>
+      </c>
+      <c r="G129" t="s">
+        <v>71</v>
+      </c>
+      <c r="H129" t="s">
+        <v>261</v>
+      </c>
+      <c r="I129" t="s">
+        <v>255</v>
+      </c>
+      <c r="J129" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>4</v>
+      </c>
+      <c r="C130" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" t="s">
+        <v>262</v>
+      </c>
+      <c r="E130" t="s">
+        <v>142</v>
+      </c>
+      <c r="F130" t="s">
+        <v>1</v>
+      </c>
+      <c r="G130" t="s">
+        <v>248</v>
+      </c>
+      <c r="H130" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>4</v>
+      </c>
+      <c r="C131" t="s">
+        <v>18</v>
+      </c>
+      <c r="D131" t="s">
+        <v>265</v>
+      </c>
+      <c r="E131" t="s">
+        <v>145</v>
+      </c>
+      <c r="F131" t="s">
+        <v>12</v>
+      </c>
+      <c r="G131" t="s">
+        <v>23</v>
+      </c>
+      <c r="H131" t="s">
+        <v>266</v>
+      </c>
+      <c r="I131">
+        <v>4</v>
+      </c>
+      <c r="J131">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>4</v>
+      </c>
+      <c r="C132" t="s">
+        <v>18</v>
+      </c>
+      <c r="D132" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E124" s="2"/>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E125" s="2"/>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E126" s="2"/>
+      <c r="E132" t="s">
+        <v>145</v>
+      </c>
+      <c r="F132" t="s">
+        <v>12</v>
+      </c>
+      <c r="G132" t="s">
+        <v>22</v>
+      </c>
+      <c r="H132" t="s">
+        <v>250</v>
+      </c>
+      <c r="I132">
+        <v>5</v>
+      </c>
+      <c r="J132">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>4</v>
+      </c>
+      <c r="C133" t="s">
+        <v>59</v>
+      </c>
+      <c r="D133" t="s">
+        <v>302</v>
+      </c>
+      <c r="E133" t="s">
+        <v>149</v>
+      </c>
+      <c r="F133" t="s">
+        <v>1</v>
+      </c>
+      <c r="G133" t="s">
+        <v>71</v>
+      </c>
+      <c r="H133" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>4</v>
+      </c>
+      <c r="C134" t="s">
+        <v>59</v>
+      </c>
+      <c r="D134" t="s">
+        <v>304</v>
+      </c>
+      <c r="E134" t="s">
+        <v>149</v>
+      </c>
+      <c r="F134" t="s">
+        <v>6</v>
+      </c>
+      <c r="G134" t="s">
+        <v>15</v>
+      </c>
+      <c r="H134" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>4</v>
+      </c>
+      <c r="C135" t="s">
+        <v>59</v>
+      </c>
+      <c r="D135" t="s">
+        <v>306</v>
+      </c>
+      <c r="E135" t="s">
+        <v>149</v>
+      </c>
+      <c r="F135" t="s">
+        <v>12</v>
+      </c>
+      <c r="G135" t="s">
+        <v>22</v>
+      </c>
+      <c r="H135" t="s">
+        <v>250</v>
+      </c>
+      <c r="I135">
+        <v>8</v>
+      </c>
+      <c r="J135">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>4</v>
+      </c>
+      <c r="C136" t="s">
+        <v>59</v>
+      </c>
+      <c r="D136" t="s">
+        <v>307</v>
+      </c>
+      <c r="E136" t="s">
+        <v>149</v>
+      </c>
+      <c r="F136" t="s">
+        <v>1</v>
+      </c>
+      <c r="G136" t="s">
+        <v>71</v>
+      </c>
+      <c r="H136" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>4</v>
+      </c>
+      <c r="C137" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" t="s">
+        <v>309</v>
+      </c>
+      <c r="E137" t="s">
+        <v>142</v>
+      </c>
+      <c r="F137" t="s">
+        <v>6</v>
+      </c>
+      <c r="G137" t="s">
+        <v>22</v>
+      </c>
+      <c r="H137" t="s">
+        <v>310</v>
+      </c>
+      <c r="K137" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>4</v>
+      </c>
+      <c r="C138" t="s">
+        <v>59</v>
+      </c>
+      <c r="D138" t="s">
+        <v>314</v>
+      </c>
+      <c r="E138" t="s">
+        <v>149</v>
+      </c>
+      <c r="F138" t="s">
+        <v>6</v>
+      </c>
+      <c r="G138" t="s">
+        <v>27</v>
+      </c>
+      <c r="H138" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>4</v>
+      </c>
+      <c r="C139" t="s">
+        <v>59</v>
+      </c>
+      <c r="D139" t="s">
+        <v>315</v>
+      </c>
+      <c r="E139" t="s">
+        <v>149</v>
+      </c>
+      <c r="F139" t="s">
+        <v>6</v>
+      </c>
+      <c r="G139" t="s">
+        <v>248</v>
+      </c>
+      <c r="H139" t="s">
+        <v>316</v>
+      </c>
+      <c r="K139" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>4</v>
+      </c>
+      <c r="C140" t="s">
+        <v>19</v>
+      </c>
+      <c r="D140" t="s">
+        <v>320</v>
+      </c>
+      <c r="E140" t="s">
+        <v>146</v>
+      </c>
+      <c r="F140" t="s">
+        <v>6</v>
+      </c>
+      <c r="G140" t="s">
+        <v>15</v>
+      </c>
+      <c r="H140" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>4</v>
+      </c>
+      <c r="C141" t="s">
+        <v>19</v>
+      </c>
+      <c r="D141" t="s">
+        <v>322</v>
+      </c>
+      <c r="E141" t="s">
+        <v>146</v>
+      </c>
+      <c r="F141" t="s">
+        <v>6</v>
+      </c>
+      <c r="G141" t="s">
+        <v>27</v>
+      </c>
+      <c r="H141" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>4</v>
+      </c>
+      <c r="C142" t="s">
+        <v>19</v>
+      </c>
+      <c r="D142" t="s">
+        <v>324</v>
+      </c>
+      <c r="E142" t="s">
+        <v>146</v>
+      </c>
+      <c r="F142" t="s">
+        <v>6</v>
+      </c>
+      <c r="G142" t="s">
+        <v>71</v>
+      </c>
+      <c r="H142" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>4</v>
+      </c>
+      <c r="C143" t="s">
+        <v>19</v>
+      </c>
+      <c r="D143" t="s">
+        <v>327</v>
+      </c>
+      <c r="E143" t="s">
+        <v>146</v>
+      </c>
+      <c r="F143" t="s">
+        <v>12</v>
+      </c>
+      <c r="G143" t="s">
+        <v>71</v>
+      </c>
+      <c r="H143" t="s">
+        <v>326</v>
+      </c>
+      <c r="I143" t="s">
+        <v>255</v>
+      </c>
+      <c r="J143" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>4</v>
+      </c>
+      <c r="C144" t="s">
+        <v>59</v>
+      </c>
+      <c r="D144" t="s">
+        <v>328</v>
+      </c>
+      <c r="E144" t="s">
+        <v>149</v>
+      </c>
+      <c r="F144" t="s">
+        <v>1</v>
+      </c>
+      <c r="G144" t="s">
+        <v>71</v>
+      </c>
+      <c r="H144" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>4</v>
+      </c>
+      <c r="C145" t="s">
+        <v>19</v>
+      </c>
+      <c r="D145" t="s">
+        <v>331</v>
+      </c>
+      <c r="E145" t="s">
+        <v>146</v>
+      </c>
+      <c r="F145" t="s">
+        <v>1</v>
+      </c>
+      <c r="G145" t="s">
+        <v>71</v>
+      </c>
+      <c r="H145" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>4</v>
+      </c>
+      <c r="C146" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" t="s">
+        <v>333</v>
+      </c>
+      <c r="E146" t="s">
+        <v>142</v>
+      </c>
+      <c r="F146" t="s">
+        <v>6</v>
+      </c>
+      <c r="G146" t="s">
+        <v>71</v>
+      </c>
+      <c r="H146" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>4</v>
+      </c>
+      <c r="C147" t="s">
+        <v>5</v>
+      </c>
+      <c r="D147" t="s">
+        <v>336</v>
+      </c>
+      <c r="E147" t="s">
+        <v>141</v>
+      </c>
+      <c r="F147" t="s">
+        <v>12</v>
+      </c>
+      <c r="G147" t="s">
+        <v>27</v>
+      </c>
+      <c r="H147" t="s">
+        <v>337</v>
+      </c>
+      <c r="I147">
+        <v>2</v>
+      </c>
+      <c r="J147">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>4</v>
+      </c>
+      <c r="C148" t="s">
+        <v>61</v>
+      </c>
+      <c r="D148" t="s">
+        <v>349</v>
+      </c>
+      <c r="E148" t="s">
+        <v>148</v>
+      </c>
+      <c r="F148" t="s">
+        <v>6</v>
+      </c>
+      <c r="G148" t="s">
+        <v>71</v>
+      </c>
+      <c r="H148" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>4</v>
+      </c>
+      <c r="C149" t="s">
+        <v>61</v>
+      </c>
+      <c r="D149" t="s">
+        <v>350</v>
+      </c>
+      <c r="E149" t="s">
+        <v>148</v>
+      </c>
+      <c r="F149" t="s">
+        <v>12</v>
+      </c>
+      <c r="G149" t="s">
+        <v>27</v>
+      </c>
+      <c r="H149" t="s">
+        <v>337</v>
+      </c>
+      <c r="I149">
+        <v>6</v>
+      </c>
+      <c r="J149">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>4</v>
+      </c>
+      <c r="C150" t="s">
+        <v>61</v>
+      </c>
+      <c r="D150" t="s">
+        <v>360</v>
+      </c>
+      <c r="E150" t="s">
+        <v>148</v>
+      </c>
+      <c r="F150" t="s">
+        <v>12</v>
+      </c>
+      <c r="G150" t="s">
+        <v>27</v>
+      </c>
+      <c r="H150" t="s">
+        <v>359</v>
+      </c>
+      <c r="I150">
+        <v>2</v>
+      </c>
+      <c r="J150">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>4</v>
+      </c>
+      <c r="C151" t="s">
+        <v>61</v>
+      </c>
+      <c r="D151" t="s">
+        <v>361</v>
+      </c>
+      <c r="E151" t="s">
+        <v>148</v>
+      </c>
+      <c r="F151" t="s">
+        <v>12</v>
+      </c>
+      <c r="G151" t="s">
+        <v>71</v>
+      </c>
+      <c r="H151" t="s">
+        <v>362</v>
+      </c>
+      <c r="I151" t="s">
+        <v>255</v>
+      </c>
+      <c r="J151" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>4</v>
+      </c>
+      <c r="C152" t="s">
+        <v>61</v>
+      </c>
+      <c r="D152" t="s">
+        <v>363</v>
+      </c>
+      <c r="E152" t="s">
+        <v>148</v>
+      </c>
+      <c r="F152" t="s">
+        <v>12</v>
+      </c>
+      <c r="G152" t="s">
+        <v>71</v>
+      </c>
+      <c r="H152" t="s">
+        <v>364</v>
+      </c>
+      <c r="I152" t="s">
+        <v>255</v>
+      </c>
+      <c r="J152" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>4</v>
+      </c>
+      <c r="C153" t="s">
+        <v>16</v>
+      </c>
+      <c r="D153" t="s">
+        <v>367</v>
+      </c>
+      <c r="E153" t="s">
+        <v>144</v>
+      </c>
+      <c r="F153" t="s">
+        <v>6</v>
+      </c>
+      <c r="G153" t="s">
+        <v>71</v>
+      </c>
+      <c r="H153" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>4</v>
+      </c>
+      <c r="C154" t="s">
+        <v>16</v>
+      </c>
+      <c r="D154" t="s">
+        <v>368</v>
+      </c>
+      <c r="E154" t="s">
+        <v>144</v>
+      </c>
+      <c r="F154" t="s">
+        <v>12</v>
+      </c>
+      <c r="G154" t="s">
+        <v>71</v>
+      </c>
+      <c r="H154" t="s">
+        <v>369</v>
+      </c>
+      <c r="I154" t="s">
+        <v>255</v>
+      </c>
+      <c r="J154" t="s">
+        <v>254</v>
+      </c>
+      <c r="K154" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>4</v>
+      </c>
+      <c r="C155" t="s">
+        <v>63</v>
+      </c>
+      <c r="D155" t="s">
+        <v>373</v>
+      </c>
+      <c r="E155" t="s">
+        <v>150</v>
+      </c>
+      <c r="F155" t="s">
+        <v>6</v>
+      </c>
+      <c r="G155" t="s">
+        <v>71</v>
+      </c>
+      <c r="H155" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>4</v>
+      </c>
+      <c r="C156" t="s">
+        <v>10</v>
+      </c>
+      <c r="D156" t="s">
+        <v>109</v>
+      </c>
+      <c r="E156" t="s">
+        <v>143</v>
+      </c>
+      <c r="F156" t="s">
+        <v>6</v>
+      </c>
+      <c r="G156" t="s">
+        <v>22</v>
+      </c>
+      <c r="H156" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>4</v>
+      </c>
+      <c r="C157" t="s">
+        <v>10</v>
+      </c>
+      <c r="D157" t="s">
+        <v>108</v>
+      </c>
+      <c r="E157" t="s">
+        <v>143</v>
+      </c>
+      <c r="F157" t="s">
+        <v>1</v>
+      </c>
+      <c r="G157" t="s">
+        <v>71</v>
+      </c>
+      <c r="H157" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>4</v>
+      </c>
+      <c r="C158" t="s">
+        <v>10</v>
+      </c>
+      <c r="D158" t="s">
+        <v>122</v>
+      </c>
+      <c r="E158" t="s">
+        <v>143</v>
+      </c>
+      <c r="F158" t="s">
+        <v>12</v>
+      </c>
+      <c r="G158" t="s">
+        <v>27</v>
+      </c>
+      <c r="H158" t="s">
+        <v>378</v>
+      </c>
+      <c r="I158">
+        <v>8</v>
+      </c>
+      <c r="J158">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>20</v>
+      </c>
+      <c r="C159" t="s">
+        <v>69</v>
+      </c>
+      <c r="D159" t="s">
+        <v>379</v>
+      </c>
+      <c r="E159" t="str">
+        <f>"-game"</f>
+        <v>-game</v>
+      </c>
+      <c r="F159" t="s">
+        <v>6</v>
+      </c>
+      <c r="G159" t="s">
+        <v>23</v>
+      </c>
+      <c r="H159" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>20</v>
+      </c>
+      <c r="C160" t="s">
+        <v>69</v>
+      </c>
+      <c r="D160" t="s">
+        <v>380</v>
+      </c>
+      <c r="E160" t="str">
+        <f>"-game"</f>
+        <v>-game</v>
+      </c>
+      <c r="F160" t="s">
+        <v>6</v>
+      </c>
+      <c r="G160" t="s">
+        <v>23</v>
+      </c>
+      <c r="H160" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>20</v>
+      </c>
+      <c r="C161" t="s">
+        <v>69</v>
+      </c>
+      <c r="D161" t="s">
+        <v>381</v>
+      </c>
+      <c r="E161" t="str">
+        <f>"-game"</f>
+        <v>-game</v>
+      </c>
+      <c r="F161" t="s">
+        <v>6</v>
+      </c>
+      <c r="G161" t="s">
+        <v>23</v>
+      </c>
+      <c r="H161" t="s">
+        <v>384</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:K119" xr:uid="{3FDCFD0A-EB57-49F4-AAA1-9BCA9E273D10}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K119">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K161">
       <sortCondition ref="A1:A119"/>
     </sortState>
   </autoFilter>

--- a/data/achievements.xlsx
+++ b/data/achievements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/12c59f61e5fb2c22/Desktop/github/root-bingo/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1586" documentId="8_{AB9AB7AF-F17D-4125-901F-926F7A193F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{137CB343-034F-43D9-99A5-B429AF127E1B}"/>
+  <xr:revisionPtr revIDLastSave="1589" documentId="8_{AB9AB7AF-F17D-4125-901F-926F7A193F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF115255-2E27-41B0-9159-1BAB5B4BFB04}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3DD2AAD7-0C45-43F7-90C1-2525C62C1F46}"/>
   </bookViews>
@@ -1583,8 +1583,8 @@
   <dimension ref="A1:K161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F152" sqref="F152"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3684,7 +3684,7 @@
         <v>344</v>
       </c>
       <c r="E69" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F69" t="s">
         <v>12</v>
